--- a/design docs/Formulas.xlsx
+++ b/design docs/Formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hex-trigger\design docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{938124EF-3F83-4C17-A6A0-68ABA21F084A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FCB5E-EC46-4D8E-AFF0-8D01AB05CBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E86AC4BF-915C-48FD-83BF-893B16CC3FA6}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>Hex Radius Increase</t>
   </si>
   <si>
-    <t>PrevCost + (Random(5 * PrevCost, 100 * PrevCost) / Level)</t>
+    <t>PrevCost + (Random(PrevCost, 5 * PrevCost) / Level)</t>
   </si>
 </sst>
 </file>
@@ -270,64 +270,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>155.66666666666666</c:v>
+                  <c:v>149.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>287.66666666666663</c:v>
+                  <c:v>180.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>442.06666666666661</c:v>
+                  <c:v>237.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>583.23333333333323</c:v>
+                  <c:v>328.43571428571431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>802.51904761904757</c:v>
+                  <c:v>394.06071428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>929.76904761904757</c:v>
+                  <c:v>500.28293650793654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1075.4357142857143</c:v>
+                  <c:v>667.58293650793655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1468.6357142857144</c:v>
+                  <c:v>822.3102092352093</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1808.4538961038961</c:v>
+                  <c:v>990.47687590187593</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2253.6205627705626</c:v>
+                  <c:v>1371.3999528249528</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2636.1590243090241</c:v>
+                  <c:v>1758.8285242535244</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2848.4447385947383</c:v>
+                  <c:v>1914.5618575868577</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3649.7114052614052</c:v>
+                  <c:v>2167.2493575868575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4731.6489052614052</c:v>
+                  <c:v>2753.1317105280341</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5080.3547876143466</c:v>
+                  <c:v>3363.1317105280341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5576.132565392124</c:v>
+                  <c:v>4214.6580263175074</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6111.1851969710715</c:v>
+                  <c:v>4921.5080263175078</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6469.2851969710719</c:v>
+                  <c:v>5398.4604072698885</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,64 +385,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.333333333333343</c:v>
+                  <c:v>57.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.33333333333334</c:v>
+                  <c:v>109.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>171.33333333333334</c:v>
+                  <c:v>192.11666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>218.33333333333334</c:v>
+                  <c:v>311.68809523809523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>337.04761904761904</c:v>
+                  <c:v>371.68809523809523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>453.92261904761904</c:v>
+                  <c:v>465.02142857142854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>616.58928571428567</c:v>
+                  <c:v>542.22142857142853</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>923.7892857142856</c:v>
+                  <c:v>773.31233766233765</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1161.8801948051946</c:v>
+                  <c:v>872.06233766233765</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1500.8801948051946</c:v>
+                  <c:v>966.98541458541456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2045.8032717282715</c:v>
+                  <c:v>1256.6282717282718</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2313.8032717282713</c:v>
+                  <c:v>1418.1616050616051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2818.1366050616048</c:v>
+                  <c:v>1624.4741050616051</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3258.5116050616048</c:v>
+                  <c:v>1937.6505756498404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3560.7468991792521</c:v>
+                  <c:v>2391.7616867609513</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3901.9135658459186</c:v>
+                  <c:v>2546.2880025504251</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4882.3346184774973</c:v>
+                  <c:v>3021.638002550425</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5556.2846184774971</c:v>
+                  <c:v>3604.2570501694727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -476,7 +476,7 @@
                   <c:v>Food Cost</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -500,64 +500,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>16.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.33333333333334</c:v>
+                  <c:v>23.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>223.08333333333334</c:v>
+                  <c:v>28.616666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>377.88333333333333</c:v>
+                  <c:v>39.616666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>525.2166666666667</c:v>
+                  <c:v>63.330952380952382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>607.64523809523814</c:v>
+                  <c:v>90.455952380952382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>698.14523809523814</c:v>
+                  <c:v>113.01150793650794</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>815.81190476190477</c:v>
+                  <c:v>144.91150793650795</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>994.01190476190482</c:v>
+                  <c:v>193.54787157287157</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1290.9209956709958</c:v>
+                  <c:v>251.88120490620491</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1825.2543290043291</c:v>
+                  <c:v>346.88120490620491</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2153.4081751581753</c:v>
+                  <c:v>446.30977633477636</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2343.5510323010326</c:v>
+                  <c:v>504.64310966810967</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2847.484365634366</c:v>
+                  <c:v>604.08060966810967</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3081.484365634366</c:v>
+                  <c:v>776.19825672693321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3428.7196597520133</c:v>
+                  <c:v>850.8093678380443</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3888.9418819742355</c:v>
+                  <c:v>980.38831520646534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4141.1524082900251</c:v>
+                  <c:v>1191.3383152064653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4879.7524082900254</c:v>
+                  <c:v>1469.4811723493224</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,64 +615,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5</c:v>
+                  <c:v>5.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>11.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.75</c:v>
+                  <c:v>14.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.95</c:v>
+                  <c:v>19.383333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.616666666666674</c:v>
+                  <c:v>29.526190476190475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.90238095238095</c:v>
+                  <c:v>37.276190476190479</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176.40238095238095</c:v>
+                  <c:v>45.942857142857143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>270.95793650793649</c:v>
+                  <c:v>57.142857142857139</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390.55793650793646</c:v>
+                  <c:v>74.961038961038952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>450.46702741702734</c:v>
+                  <c:v>93.211038961038952</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>592.38369408369397</c:v>
+                  <c:v>111.28796203796203</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>690.46061716061706</c:v>
+                  <c:v>136.93081918081919</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>890.88918858918851</c:v>
+                  <c:v>176.26415251415253</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1006.3558552558552</c:v>
+                  <c:v>197.82665251415253</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1102.7933552558552</c:v>
+                  <c:v>226.94429957297606</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1361.087472902914</c:v>
+                  <c:v>266.38874401742049</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1457.2541395695807</c:v>
+                  <c:v>291.33611243847315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1787.1488764116859</c:v>
+                  <c:v>356.53611243847314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2049.8988764116857</c:v>
+                  <c:v>389.20277910513983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,10 +1506,10 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1695449</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1896,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1913,34 +1913,34 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2 + 1</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A22" si="0">A2 + 1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
         <f>B2 + I2</f>
         <v>5</v>
       </c>
       <c r="C3" s="3">
-        <f ca="1">C2 + (RANDBETWEEN(C2, 5 * C2) / A3)</f>
-        <v>53</v>
+        <f t="shared" ref="C3:C22" ca="1" si="1">C2 + (RANDBETWEEN(C2, 5 * C2) / A3)</f>
+        <v>34.5</v>
       </c>
       <c r="D3" s="3">
-        <f ca="1">D2 + (RANDBETWEEN(D2, 5 * D2) / A3)</f>
-        <v>11</v>
+        <f t="shared" ref="D3:D22" ca="1" si="2">D2 + (RANDBETWEEN(D2, 5 * D2) / A3)</f>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
-        <f ca="1">E2 + (RANDBETWEEN(E2, 5 * E2) / A3)</f>
-        <v>17</v>
+        <f t="shared" ref="E3:E22" ca="1" si="3">E2 + (RANDBETWEEN(E2, 5 * E2) / A3)</f>
+        <v>10</v>
       </c>
       <c r="F3" s="3">
-        <f ca="1">F2 + (RANDBETWEEN(F2, 5 * F2) / A3)</f>
-        <v>3</v>
+        <f t="shared" ref="F3:F22" ca="1" si="4">F2 + (RANDBETWEEN(F2, 5 * F2) / A3)</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>A3 + 1</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <f>B3 + I2</f>
@@ -1948,487 +1948,487 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">C3 + (RANDBETWEEN(C3, 5 * C3) / A4)</f>
-        <v>112</v>
+        <v>70.5</v>
       </c>
       <c r="D4" s="3">
-        <f ca="1">D3 + (RANDBETWEEN(D3, 5 * D3) / A4)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>28</v>
       </c>
       <c r="E4" s="3">
-        <f ca="1">E3 + (RANDBETWEEN(E3, 5 * E3) / A4)</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="F4" s="3">
-        <f ca="1">F3 + (RANDBETWEEN(F3, 5 * F3) / A4)</f>
-        <v>8.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.8333333333333339</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4 + 1</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <f>B4 + I2</f>
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <f ca="1">C4 + (RANDBETWEEN(C4, 5 * C4) / A5)</f>
-        <v>155.66666666666666</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>149.25</v>
       </c>
       <c r="D5" s="3">
-        <f ca="1">D4 + (RANDBETWEEN(D4, 5 * D4) / A5)</f>
-        <v>70.333333333333343</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57.75</v>
       </c>
       <c r="E5" s="3">
-        <f ca="1">E4 + (RANDBETWEEN(E4, 5 * E4) / A5)</f>
-        <v>103.33333333333334</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23.416666666666668</v>
       </c>
       <c r="F5" s="3">
-        <f ca="1">F4 + (RANDBETWEEN(F4, 5 * F4) / A5)</f>
-        <v>15.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.583333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5 + 1</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <f>B5 + I2</f>
         <v>11</v>
       </c>
       <c r="C6" s="3">
-        <f ca="1">C5 + (RANDBETWEEN(C5, 5 * C5) / A6)</f>
-        <v>287.66666666666663</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>180.65</v>
       </c>
       <c r="D6" s="3">
-        <f ca="1">D5 + (RANDBETWEEN(D5, 5 * D5) / A6)</f>
-        <v>129.33333333333334</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>109.95</v>
       </c>
       <c r="E6" s="3">
-        <f ca="1">E5 + (RANDBETWEEN(E5, 5 * E5) / A6)</f>
-        <v>223.08333333333334</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.616666666666667</v>
       </c>
       <c r="F6" s="3">
-        <f ca="1">F5 + (RANDBETWEEN(F5, 5 * F5) / A6)</f>
-        <v>26.75</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.383333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6 + 1</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <f>B6 + I2</f>
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <f ca="1">C6 + (RANDBETWEEN(C6, 5 * C6) / A7)</f>
-        <v>442.06666666666661</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>237.15</v>
       </c>
       <c r="D7" s="3">
-        <f ca="1">D6 + (RANDBETWEEN(D6, 5 * D6) / A7)</f>
-        <v>171.33333333333334</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>192.11666666666667</v>
       </c>
       <c r="E7" s="3">
-        <f ca="1">E6 + (RANDBETWEEN(E6, 5 * E6) / A7)</f>
-        <v>377.88333333333333</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>39.616666666666667</v>
       </c>
       <c r="F7" s="3">
-        <f ca="1">F6 + (RANDBETWEEN(F6, 5 * F6) / A7)</f>
-        <v>48.95</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19.383333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7 + 1</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <f>B7 + I2</f>
         <v>15</v>
       </c>
       <c r="C8" s="3">
-        <f ca="1">C7 + (RANDBETWEEN(C7, 5 * C7) / A8)</f>
-        <v>583.23333333333323</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>328.43571428571431</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">D7 + (RANDBETWEEN(D7, 5 * D7) / A8)</f>
-        <v>218.33333333333334</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>311.68809523809523</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">E7 + (RANDBETWEEN(E7, 5 * E7) / A8)</f>
-        <v>525.2166666666667</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>63.330952380952382</v>
       </c>
       <c r="F8" s="3">
-        <f ca="1">F7 + (RANDBETWEEN(F7, 5 * F7) / A8)</f>
-        <v>87.616666666666674</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29.526190476190475</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8 + 1</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <f>B8 + I2</f>
         <v>17</v>
       </c>
       <c r="C9" s="3">
-        <f ca="1">C8 + (RANDBETWEEN(C8, 5 * C8) / A9)</f>
-        <v>802.51904761904757</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>394.06071428571431</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">D8 + (RANDBETWEEN(D8, 5 * D8) / A9)</f>
-        <v>337.04761904761904</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>371.68809523809523</v>
       </c>
       <c r="E9" s="3">
-        <f ca="1">E8 + (RANDBETWEEN(E8, 5 * E8) / A9)</f>
-        <v>607.64523809523814</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>90.455952380952382</v>
       </c>
       <c r="F9" s="3">
-        <f ca="1">F8 + (RANDBETWEEN(F8, 5 * F8) / A9)</f>
-        <v>126.90238095238095</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>37.276190476190479</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9 + 1</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <f>B9 + I2</f>
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <f ca="1">C9 + (RANDBETWEEN(C9, 5 * C9) / A10)</f>
-        <v>929.76904761904757</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>500.28293650793654</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">D9 + (RANDBETWEEN(D9, 5 * D9) / A10)</f>
-        <v>453.92261904761904</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>465.02142857142854</v>
       </c>
       <c r="E10" s="3">
-        <f ca="1">E9 + (RANDBETWEEN(E9, 5 * E9) / A10)</f>
-        <v>698.14523809523814</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>113.01150793650794</v>
       </c>
       <c r="F10" s="3">
-        <f ca="1">F9 + (RANDBETWEEN(F9, 5 * F9) / A10)</f>
-        <v>176.40238095238095</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>45.942857142857143</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10 + 1</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <f>B10 + I2</f>
         <v>21</v>
       </c>
       <c r="C11" s="3">
-        <f ca="1">C10 + (RANDBETWEEN(C10, 5 * C10) / A11)</f>
-        <v>1075.4357142857143</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>667.58293650793655</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">D10 + (RANDBETWEEN(D10, 5 * D10) / A11)</f>
-        <v>616.58928571428567</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>542.22142857142853</v>
       </c>
       <c r="E11" s="3">
-        <f ca="1">E10 + (RANDBETWEEN(E10, 5 * E10) / A11)</f>
-        <v>815.81190476190477</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>144.91150793650795</v>
       </c>
       <c r="F11" s="3">
-        <f ca="1">F10 + (RANDBETWEEN(F10, 5 * F10) / A11)</f>
-        <v>270.95793650793649</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>57.142857142857139</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11 + 1</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <f>B11 + I2</f>
         <v>23</v>
       </c>
       <c r="C12" s="3">
-        <f ca="1">C11 + (RANDBETWEEN(C11, 5 * C11) / A12)</f>
-        <v>1468.6357142857144</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>822.3102092352093</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">D11 + (RANDBETWEEN(D11, 5 * D11) / A12)</f>
-        <v>923.7892857142856</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>773.31233766233765</v>
       </c>
       <c r="E12" s="3">
-        <f ca="1">E11 + (RANDBETWEEN(E11, 5 * E11) / A12)</f>
-        <v>994.01190476190482</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>193.54787157287157</v>
       </c>
       <c r="F12" s="3">
-        <f ca="1">F11 + (RANDBETWEEN(F11, 5 * F11) / A12)</f>
-        <v>390.55793650793646</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>74.961038961038952</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12 + 1</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <f>B12 + I2</f>
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <f ca="1">C12 + (RANDBETWEEN(C12, 5 * C12) / A13)</f>
-        <v>1808.4538961038961</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>990.47687590187593</v>
       </c>
       <c r="D13" s="3">
-        <f ca="1">D12 + (RANDBETWEEN(D12, 5 * D12) / A13)</f>
-        <v>1161.8801948051946</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>872.06233766233765</v>
       </c>
       <c r="E13" s="3">
-        <f ca="1">E12 + (RANDBETWEEN(E12, 5 * E12) / A13)</f>
-        <v>1290.9209956709958</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>251.88120490620491</v>
       </c>
       <c r="F13" s="3">
-        <f ca="1">F12 + (RANDBETWEEN(F12, 5 * F12) / A13)</f>
-        <v>450.46702741702734</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93.211038961038952</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13 + 1</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <f>B13 + I2</f>
         <v>27</v>
       </c>
       <c r="C14" s="3">
-        <f ca="1">C13 + (RANDBETWEEN(C13, 5 * C13) / A14)</f>
-        <v>2253.6205627705626</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1371.3999528249528</v>
       </c>
       <c r="D14" s="3">
-        <f ca="1">D13 + (RANDBETWEEN(D13, 5 * D13) / A14)</f>
-        <v>1500.8801948051946</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>966.98541458541456</v>
       </c>
       <c r="E14" s="3">
-        <f ca="1">E13 + (RANDBETWEEN(E13, 5 * E13) / A14)</f>
-        <v>1825.2543290043291</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>346.88120490620491</v>
       </c>
       <c r="F14" s="3">
-        <f ca="1">F13 + (RANDBETWEEN(F13, 5 * F13) / A14)</f>
-        <v>592.38369408369397</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>111.28796203796203</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14 + 1</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <f>B14 + I2</f>
         <v>29</v>
       </c>
       <c r="C15" s="3">
-        <f ca="1">C14 + (RANDBETWEEN(C14, 5 * C14) / A15)</f>
-        <v>2636.1590243090241</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1758.8285242535244</v>
       </c>
       <c r="D15" s="3">
-        <f ca="1">D14 + (RANDBETWEEN(D14, 5 * D14) / A15)</f>
-        <v>2045.8032717282715</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1256.6282717282718</v>
       </c>
       <c r="E15" s="3">
-        <f ca="1">E14 + (RANDBETWEEN(E14, 5 * E14) / A15)</f>
-        <v>2153.4081751581753</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>446.30977633477636</v>
       </c>
       <c r="F15" s="3">
-        <f ca="1">F14 + (RANDBETWEEN(F14, 5 * F14) / A15)</f>
-        <v>690.46061716061706</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>136.93081918081919</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15 + 1</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <f>B15 + I2</f>
         <v>31</v>
       </c>
       <c r="C16" s="3">
-        <f ca="1">C15 + (RANDBETWEEN(C15, 5 * C15) / A16)</f>
-        <v>2848.4447385947383</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1914.5618575868577</v>
       </c>
       <c r="D16" s="3">
-        <f ca="1">D15 + (RANDBETWEEN(D15, 5 * D15) / A16)</f>
-        <v>2313.8032717282713</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1418.1616050616051</v>
       </c>
       <c r="E16" s="3">
-        <f ca="1">E15 + (RANDBETWEEN(E15, 5 * E15) / A16)</f>
-        <v>2343.5510323010326</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>504.64310966810967</v>
       </c>
       <c r="F16" s="3">
-        <f ca="1">F15 + (RANDBETWEEN(F15, 5 * F15) / A16)</f>
-        <v>890.88918858918851</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>176.26415251415253</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A16 + 1</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <f>B16 + I2</f>
         <v>33</v>
       </c>
       <c r="C17" s="3">
-        <f ca="1">C16 + (RANDBETWEEN(C16, 5 * C16) / A17)</f>
-        <v>3649.7114052614052</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2167.2493575868575</v>
       </c>
       <c r="D17" s="3">
-        <f ca="1">D16 + (RANDBETWEEN(D16, 5 * D16) / A17)</f>
-        <v>2818.1366050616048</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1624.4741050616051</v>
       </c>
       <c r="E17" s="3">
-        <f ca="1">E16 + (RANDBETWEEN(E16, 5 * E16) / A17)</f>
-        <v>2847.484365634366</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>604.08060966810967</v>
       </c>
       <c r="F17" s="3">
-        <f ca="1">F16 + (RANDBETWEEN(F16, 5 * F16) / A17)</f>
-        <v>1006.3558552558552</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>197.82665251415253</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A17 + 1</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <f>B17 + I2</f>
         <v>35</v>
       </c>
       <c r="C18" s="3">
-        <f ca="1">C17 + (RANDBETWEEN(C17, 5 * C17) / A18)</f>
-        <v>4731.6489052614052</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2753.1317105280341</v>
       </c>
       <c r="D18" s="3">
-        <f ca="1">D17 + (RANDBETWEEN(D17, 5 * D17) / A18)</f>
-        <v>3258.5116050616048</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1937.6505756498404</v>
       </c>
       <c r="E18" s="3">
-        <f ca="1">E17 + (RANDBETWEEN(E17, 5 * E17) / A18)</f>
-        <v>3081.484365634366</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>776.19825672693321</v>
       </c>
       <c r="F18" s="3">
-        <f ca="1">F17 + (RANDBETWEEN(F17, 5 * F17) / A18)</f>
-        <v>1102.7933552558552</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>226.94429957297606</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>A18 + 1</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <f>B18 + I2</f>
         <v>37</v>
       </c>
       <c r="C19" s="3">
-        <f ca="1">C18 + (RANDBETWEEN(C18, 5 * C18) / A19)</f>
-        <v>5080.3547876143466</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3363.1317105280341</v>
       </c>
       <c r="D19" s="3">
-        <f ca="1">D18 + (RANDBETWEEN(D18, 5 * D18) / A19)</f>
-        <v>3560.7468991792521</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2391.7616867609513</v>
       </c>
       <c r="E19" s="3">
-        <f ca="1">E18 + (RANDBETWEEN(E18, 5 * E18) / A19)</f>
-        <v>3428.7196597520133</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>850.8093678380443</v>
       </c>
       <c r="F19" s="3">
-        <f ca="1">F18 + (RANDBETWEEN(F18, 5 * F18) / A19)</f>
-        <v>1361.087472902914</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>266.38874401742049</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>A19 + 1</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <f>B19 + I2</f>
         <v>39</v>
       </c>
       <c r="C20" s="3">
-        <f ca="1">C19 + (RANDBETWEEN(C19, 5 * C19) / A20)</f>
-        <v>5576.132565392124</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4214.6580263175074</v>
       </c>
       <c r="D20" s="3">
-        <f ca="1">D19 + (RANDBETWEEN(D19, 5 * D19) / A20)</f>
-        <v>3901.9135658459186</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2546.2880025504251</v>
       </c>
       <c r="E20" s="3">
-        <f ca="1">E19 + (RANDBETWEEN(E19, 5 * E19) / A20)</f>
-        <v>3888.9418819742355</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>980.38831520646534</v>
       </c>
       <c r="F20" s="3">
-        <f ca="1">F19 + (RANDBETWEEN(F19, 5 * F19) / A20)</f>
-        <v>1457.2541395695807</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>291.33611243847315</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>A20 + 1</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <f>B20 + I2</f>
         <v>41</v>
       </c>
       <c r="C21" s="3">
-        <f ca="1">C20 + (RANDBETWEEN(C20, 5 * C20) / A21)</f>
-        <v>6111.1851969710715</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4921.5080263175078</v>
       </c>
       <c r="D21" s="3">
-        <f ca="1">D20 + (RANDBETWEEN(D20, 5 * D20) / A21)</f>
-        <v>4882.3346184774973</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3021.638002550425</v>
       </c>
       <c r="E21" s="3">
-        <f ca="1">E20 + (RANDBETWEEN(E20, 5 * E20) / A21)</f>
-        <v>4141.1524082900251</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1191.3383152064653</v>
       </c>
       <c r="F21" s="3">
-        <f ca="1">F20 + (RANDBETWEEN(F20, 5 * F20) / A21)</f>
-        <v>1787.1488764116859</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>356.53611243847314</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>A21 + 1</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <f>B21 + I2</f>
         <v>43</v>
       </c>
       <c r="C22" s="3">
-        <f ca="1">C21 + (RANDBETWEEN(C21, 5 * C21) / A22)</f>
-        <v>6469.2851969710719</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5398.4604072698885</v>
       </c>
       <c r="D22" s="3">
-        <f ca="1">D21 + (RANDBETWEEN(D21, 5 * D21) / A22)</f>
-        <v>5556.2846184774971</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3604.2570501694727</v>
       </c>
       <c r="E22" s="3">
-        <f ca="1">E21 + (RANDBETWEEN(E21, 5 * E21) / A22)</f>
-        <v>4879.7524082900254</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1469.4811723493224</v>
       </c>
       <c r="F22" s="3">
-        <f ca="1">F21 + (RANDBETWEEN(F21, 5 * F21) / A22)</f>
-        <v>2049.8988764116857</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>389.20277910513983</v>
       </c>
     </row>
   </sheetData>

--- a/design docs/Formulas.xlsx
+++ b/design docs/Formulas.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hex-trigger\design docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1FCB5E-EC46-4D8E-AFF0-8D01AB05CBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD1C099-FB73-47AF-8D9C-41809277EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E86AC4BF-915C-48FD-83BF-893B16CC3FA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E86AC4BF-915C-48FD-83BF-893B16CC3FA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hex Increase Math" sheetId="1" r:id="rId1"/>
+    <sheet name="Monument Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Monument Bonus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Level</t>
   </si>
@@ -67,6 +69,51 @@
   </si>
   <si>
     <t>PrevCost + (Random(PrevCost, 5 * PrevCost) / Level)</t>
+  </si>
+  <si>
+    <t>Monument Count</t>
+  </si>
+  <si>
+    <t>Military Cost</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>PrevCost + (Rand(PrevCost, PrevCost * 2) / Count)</t>
+  </si>
+  <si>
+    <t>Diplomatic Bonus</t>
+  </si>
+  <si>
+    <t>Scientific Bonus</t>
+  </si>
+  <si>
+    <t>Happiness Bonus</t>
+  </si>
+  <si>
+    <t>Industry Bonus</t>
+  </si>
+  <si>
+    <t>Isolium Bonus</t>
+  </si>
+  <si>
+    <t>Military Bonus</t>
+  </si>
+  <si>
+    <t>Food Bonus</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Lower Bound Mult</t>
+  </si>
+  <si>
+    <t>Upper Bound Mult</t>
+  </si>
+  <si>
+    <t>Rand(PrevBonus * LowerBound, PrevBonus * UpperBound)</t>
   </si>
 </sst>
 </file>
@@ -120,12 +167,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -270,64 +337,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>34.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.5</c:v>
+                  <c:v>33.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.25</c:v>
+                  <c:v>49.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180.65</c:v>
+                  <c:v>91.166666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>237.15</c:v>
+                  <c:v>139.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>328.43571428571431</c:v>
+                  <c:v>215.76190476190476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>394.06071428571431</c:v>
+                  <c:v>340.63690476190476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>500.28293650793654</c:v>
+                  <c:v>395.08134920634922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>667.58293650793655</c:v>
+                  <c:v>474.68134920634918</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>822.3102092352093</c:v>
+                  <c:v>603.04498556998556</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>990.47687590187593</c:v>
+                  <c:v>656.54498556998556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1371.3999528249528</c:v>
+                  <c:v>766.23729326229329</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1758.8285242535244</c:v>
+                  <c:v>901.8801504051504</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1914.5618575868577</c:v>
+                  <c:v>1068.6134837384836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2167.2493575868575</c:v>
+                  <c:v>1181.7384837384836</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2753.1317105280341</c:v>
+                  <c:v>1336.3267190326012</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3363.1317105280341</c:v>
+                  <c:v>1598.3267190326012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4214.6580263175074</c:v>
+                  <c:v>2015.853034822075</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4921.5080263175078</c:v>
+                  <c:v>2409.5030348220748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5398.4604072698885</c:v>
+                  <c:v>2961.8363681554083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,64 +452,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>22.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.75</c:v>
+                  <c:v>45.083333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.95</c:v>
+                  <c:v>55.88333333333334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.11666666666667</c:v>
+                  <c:v>69.550000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>311.68809523809523</c:v>
+                  <c:v>95.835714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>371.68809523809523</c:v>
+                  <c:v>121.33571428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>465.02142857142854</c:v>
+                  <c:v>137.55793650793652</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>542.22142857142853</c:v>
+                  <c:v>182.35793650793653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>773.31233766233765</c:v>
+                  <c:v>205.08520923520925</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>872.06233766233765</c:v>
+                  <c:v>267.75187590187591</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>966.98541458541456</c:v>
+                  <c:v>303.44418359418358</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1256.6282717282718</c:v>
+                  <c:v>367.87275502275503</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1418.1616050616051</c:v>
+                  <c:v>417.20608835608834</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1624.4741050616051</c:v>
+                  <c:v>525.14358835608834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1937.6505756498404</c:v>
+                  <c:v>635.61417659138249</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2391.7616867609513</c:v>
+                  <c:v>775.78084325804912</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2546.2880025504251</c:v>
+                  <c:v>831.41242220541756</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3021.638002550425</c:v>
+                  <c:v>951.8624222054176</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3604.2570501694727</c:v>
+                  <c:v>998.67194601494145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,64 +567,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.666666666666668</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.416666666666668</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.616666666666667</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39.616666666666667</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.330952380952382</c:v>
+                  <c:v>69.085714285714289</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.455952380952382</c:v>
+                  <c:v>88.460714285714289</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>113.01150793650794</c:v>
+                  <c:v>128.34960317460317</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>144.91150793650795</c:v>
+                  <c:v>149.94960317460317</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>193.54787157287157</c:v>
+                  <c:v>184.67687590187589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>251.88120490620491</c:v>
+                  <c:v>244.01020923520923</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>346.88120490620491</c:v>
+                  <c:v>270.8563630813631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>446.30977633477636</c:v>
+                  <c:v>307.78493450993454</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>504.64310966810967</c:v>
+                  <c:v>363.91826784326787</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>604.08060966810967</c:v>
+                  <c:v>445.54326784326787</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>776.19825672693321</c:v>
+                  <c:v>555.42562078444439</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850.8093678380443</c:v>
+                  <c:v>665.59228745111102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>980.38831520646534</c:v>
+                  <c:v>750.17123481953206</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1191.3383152064653</c:v>
+                  <c:v>848.02123481953208</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1469.4811723493224</c:v>
+                  <c:v>920.11647291477016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,64 +682,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8333333333333339</c:v>
+                  <c:v>3.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.583333333333334</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.383333333333333</c:v>
+                  <c:v>9.4333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.383333333333333</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.526190476190475</c:v>
+                  <c:v>13.957142857142857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.276190476190479</c:v>
+                  <c:v>22.332142857142856</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.942857142857143</c:v>
+                  <c:v>26.776587301587298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.142857142857139</c:v>
+                  <c:v>32.976587301587301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74.961038961038952</c:v>
+                  <c:v>46.158405483405481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>93.211038961038952</c:v>
+                  <c:v>60.658405483405481</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111.28796203796203</c:v>
+                  <c:v>74.196867021867021</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>136.93081918081919</c:v>
+                  <c:v>93.125438450438452</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>176.26415251415253</c:v>
+                  <c:v>103.32543845043845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>197.82665251415253</c:v>
+                  <c:v>115.01293845043845</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>226.94429957297606</c:v>
+                  <c:v>127.71882080337963</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>266.38874401742049</c:v>
+                  <c:v>157.10770969226851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>291.33611243847315</c:v>
+                  <c:v>174.00244653437377</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>356.53611243847314</c:v>
+                  <c:v>193.05244653437379</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>389.20277910513983</c:v>
+                  <c:v>234.76673224865951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,7 +1007,2234 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Cost'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Cost'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.94999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.80714285714285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186.68214285714285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>220.90436507936508</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C91-487D-9389-4071F16E5794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Cost'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Cost'!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.833333333333329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.583333333333329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.18333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150.68333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>173.39761904761906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>205.27261904761906</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>239.71706349206352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C91-487D-9389-4071F16E5794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Cost'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isolium Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Cost'!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.81666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>182.53095238095239</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>220.78095238095239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>248.66984126984127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C91-487D-9389-4071F16E5794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Cost'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Military Cost</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Cost'!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.166666666666671</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>108.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.26666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>198.26666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>244.55238095238096</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>284.05238095238099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>341.9412698412699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5C91-487D-9389-4071F16E5794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="764050120"/>
+        <c:axId val="764045528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="764050120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Monument</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764045528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764045528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764050120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diplomatic Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scientific Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Happiness Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Isolium Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Food Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$G$2:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monument Bonus'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Military Bonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monument Bonus'!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9684-4EC6-82AB-7B93E3F759FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="705648192"/>
+        <c:axId val="705651472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="705648192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705651472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705651472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bonus Delta</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705648192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1496,6 +3790,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1517,6 +4843,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198E4BE2-469D-4569-9D07-0B8922B9065D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDD3979-2E1B-4651-82A1-0BCA2767AD2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1562099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DEB6B0-5821-46CE-90D5-EC099C5291C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,8 +5244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF6BC52-D470-469A-A949-72F0911E43F5}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,19 +5330,19 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C22" ca="1" si="1">C2 + (RANDBETWEEN(C2, 5 * C2) / A3)</f>
-        <v>34.5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D22" ca="1" si="2">D2 + (RANDBETWEEN(D2, 5 * D2) / A3)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E22" ca="1" si="3">E2 + (RANDBETWEEN(E2, 5 * E2) / A3)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F22" ca="1" si="4">F2 + (RANDBETWEEN(F2, 5 * F2) / A3)</f>
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,19 +5356,19 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">C3 + (RANDBETWEEN(C3, 5 * C3) / A4)</f>
-        <v>70.5</v>
+        <v>33.666666666666671</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>22.333333333333336</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>16.666666666666668</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8333333333333339</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1974,19 +5382,19 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>149.25</v>
+        <v>49.166666666666671</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>57.75</v>
+        <v>45.083333333333336</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>23.416666666666668</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>11.583333333333334</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2000,19 +5408,19 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>180.65</v>
+        <v>91.166666666666671</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>109.95</v>
+        <v>55.88333333333334</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>28.616666666666667</v>
+        <v>30.8</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>14.383333333333333</v>
+        <v>9.4333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2026,19 +5434,19 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>237.15</v>
+        <v>139.33333333333334</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>192.11666666666667</v>
+        <v>69.550000000000011</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>39.616666666666667</v>
+        <v>45.8</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>19.383333333333333</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2052,19 +5460,19 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>328.43571428571431</v>
+        <v>215.76190476190476</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>311.68809523809523</v>
+        <v>95.835714285714289</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>63.330952380952382</v>
+        <v>69.085714285714289</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>29.526190476190475</v>
+        <v>13.957142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2078,19 +5486,19 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>394.06071428571431</v>
+        <v>340.63690476190476</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>371.68809523809523</v>
+        <v>121.33571428571429</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>90.455952380952382</v>
+        <v>88.460714285714289</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>37.276190476190479</v>
+        <v>22.332142857142856</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,19 +5512,19 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>500.28293650793654</v>
+        <v>395.08134920634922</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>465.02142857142854</v>
+        <v>137.55793650793652</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>113.01150793650794</v>
+        <v>128.34960317460317</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>45.942857142857143</v>
+        <v>26.776587301587298</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2130,19 +5538,19 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>667.58293650793655</v>
+        <v>474.68134920634918</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>542.22142857142853</v>
+        <v>182.35793650793653</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>144.91150793650795</v>
+        <v>149.94960317460317</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>57.142857142857139</v>
+        <v>32.976587301587301</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2156,19 +5564,19 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>822.3102092352093</v>
+        <v>603.04498556998556</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>773.31233766233765</v>
+        <v>205.08520923520925</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>193.54787157287157</v>
+        <v>184.67687590187589</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>74.961038961038952</v>
+        <v>46.158405483405481</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2182,19 +5590,19 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>990.47687590187593</v>
+        <v>656.54498556998556</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>872.06233766233765</v>
+        <v>267.75187590187591</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>251.88120490620491</v>
+        <v>244.01020923520923</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>93.211038961038952</v>
+        <v>60.658405483405481</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2208,19 +5616,19 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1371.3999528249528</v>
+        <v>766.23729326229329</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>966.98541458541456</v>
+        <v>303.44418359418358</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>346.88120490620491</v>
+        <v>270.8563630813631</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>111.28796203796203</v>
+        <v>74.196867021867021</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2234,19 +5642,19 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1758.8285242535244</v>
+        <v>901.8801504051504</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1256.6282717282718</v>
+        <v>367.87275502275503</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>446.30977633477636</v>
+        <v>307.78493450993454</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>136.93081918081919</v>
+        <v>93.125438450438452</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2260,19 +5668,19 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1914.5618575868577</v>
+        <v>1068.6134837384836</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1418.1616050616051</v>
+        <v>417.20608835608834</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>504.64310966810967</v>
+        <v>363.91826784326787</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>176.26415251415253</v>
+        <v>103.32543845043845</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2286,19 +5694,19 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2167.2493575868575</v>
+        <v>1181.7384837384836</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1624.4741050616051</v>
+        <v>525.14358835608834</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>604.08060966810967</v>
+        <v>445.54326784326787</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>197.82665251415253</v>
+        <v>115.01293845043845</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2312,19 +5720,19 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2753.1317105280341</v>
+        <v>1336.3267190326012</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1937.6505756498404</v>
+        <v>635.61417659138249</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>776.19825672693321</v>
+        <v>555.42562078444439</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>226.94429957297606</v>
+        <v>127.71882080337963</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,19 +5746,19 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3363.1317105280341</v>
+        <v>1598.3267190326012</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2391.7616867609513</v>
+        <v>775.78084325804912</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>850.8093678380443</v>
+        <v>665.59228745111102</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>266.38874401742049</v>
+        <v>157.10770969226851</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2364,19 +5772,19 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4214.6580263175074</v>
+        <v>2015.853034822075</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2546.2880025504251</v>
+        <v>831.41242220541756</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>980.38831520646534</v>
+        <v>750.17123481953206</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>291.33611243847315</v>
+        <v>174.00244653437377</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2390,19 +5798,19 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4921.5080263175078</v>
+        <v>2409.5030348220748</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3021.638002550425</v>
+        <v>951.8624222054176</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1191.3383152064653</v>
+        <v>848.02123481953208</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>356.53611243847314</v>
+        <v>193.05244653437379</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,19 +5824,1017 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5398.4604072698885</v>
+        <v>2961.8363681554083</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3604.2570501694727</v>
+        <v>998.67194601494145</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1469.4811723493224</v>
+        <v>920.11647291477016</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>389.20277910513983</v>
+        <v>234.76673224865951</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EC29F0-D9BF-4E39-87F5-2CBC9369737A}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <f t="shared" ref="B3:B11" ca="1" si="0">(B2 + (RANDBETWEEN(B2, B2 * 2) / A2))</f>
+        <v>30</v>
+      </c>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:C11" ca="1" si="1">(C2 + (RANDBETWEEN(C2, C2 * 2) / A2))</f>
+        <v>25</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" ref="D3:D11" ca="1" si="2">(D2 + (RANDBETWEEN(D2, D2 * 2) / A2))</f>
+        <v>28</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" ref="E3:E11" ca="1" si="3">(E2 + (RANDBETWEEN(E2, E2 * 2) / A2))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>45.5</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>46.5</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>61.5</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>63.833333333333329</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>76.166666666666671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>83.75</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>91.583333333333329</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>90.75</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>108.66666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>109.95</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>114.18333333333334</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>118.15</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>151.26666666666668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>133.94999999999999</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>150.68333333333334</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>144.81666666666666</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>198.26666666666668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>153.80714285714285</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>173.39761904761906</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>182.53095238095239</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>244.55238095238096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>186.68214285714285</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>205.27261904761906</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>220.78095238095239</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>284.05238095238099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>220.90436507936508</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>239.71706349206352</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>248.66984126984127</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" ca="1" si="3"/>
+        <v>341.9412698412699</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D11BCA-67D4-4C5E-BCB7-1DCE7186EDAA}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="53.140625" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>100</v>
+      </c>
+      <c r="C2" s="8">
+        <v>100</v>
+      </c>
+      <c r="D2" s="8">
+        <v>100</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="8">
+        <v>100</v>
+      </c>
+      <c r="G2" s="8">
+        <v>100</v>
+      </c>
+      <c r="H2" s="8">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f t="shared" ref="A3:A11" si="0">A2 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <f ca="1">(RANDBETWEEN(B2 * J2, B2 * K2))</f>
+        <v>87</v>
+      </c>
+      <c r="C3" s="8">
+        <f ca="1">(RANDBETWEEN(C2 * J2, C2 * K2))</f>
+        <v>88</v>
+      </c>
+      <c r="D3" s="8">
+        <f ca="1">(RANDBETWEEN(D2 * J2, D2 * K2))</f>
+        <v>85</v>
+      </c>
+      <c r="E3" s="8">
+        <f ca="1">(RANDBETWEEN(E2 * J2, E2 * K2))</f>
+        <v>90</v>
+      </c>
+      <c r="F3" s="8">
+        <f ca="1">(RANDBETWEEN(F2 * J2, F2 * K2))</f>
+        <v>89</v>
+      </c>
+      <c r="G3" s="8">
+        <f ca="1">(RANDBETWEEN(G2 * J2, G2 * K2))</f>
+        <v>82</v>
+      </c>
+      <c r="H3" s="8">
+        <f ca="1">(RANDBETWEEN(H2 * J2, H2 * K2))</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <f ca="1">(RANDBETWEEN(B3 * J2, B3 * K2))</f>
+        <v>77</v>
+      </c>
+      <c r="C4" s="8">
+        <f ca="1">(RANDBETWEEN(C3 * J2, C3 * K2))</f>
+        <v>74</v>
+      </c>
+      <c r="D4" s="8">
+        <f ca="1">(RANDBETWEEN(D3 * J2, D3 * K2))</f>
+        <v>68</v>
+      </c>
+      <c r="E4" s="8">
+        <f ca="1">(RANDBETWEEN(E3 * J2, E3 * K2))</f>
+        <v>78</v>
+      </c>
+      <c r="F4" s="8">
+        <f ca="1">(RANDBETWEEN(F3 * J2, F3 * K2))</f>
+        <v>75</v>
+      </c>
+      <c r="G4" s="8">
+        <f ca="1">(RANDBETWEEN(G3 * J2, G3 * K2))</f>
+        <v>67</v>
+      </c>
+      <c r="H4" s="8">
+        <f ca="1">(RANDBETWEEN(H3 * J2, H3 * K2))</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <f ca="1">(RANDBETWEEN(B4 * J2, B4 * K2))</f>
+        <v>62</v>
+      </c>
+      <c r="C5" s="8">
+        <f ca="1">(RANDBETWEEN(C4 * J2, C4 * K2))</f>
+        <v>61</v>
+      </c>
+      <c r="D5" s="8">
+        <f ca="1">(RANDBETWEEN(D4 * J2, D4 * K2))</f>
+        <v>60</v>
+      </c>
+      <c r="E5" s="8">
+        <f ca="1">(RANDBETWEEN(E4 * J2, E4 * K2))</f>
+        <v>68</v>
+      </c>
+      <c r="F5" s="8">
+        <f ca="1">(RANDBETWEEN(F4 * J2, F4 * K2))</f>
+        <v>61</v>
+      </c>
+      <c r="G5" s="8">
+        <f ca="1">(RANDBETWEEN(G4 * J2, G4 * K2))</f>
+        <v>60</v>
+      </c>
+      <c r="H5" s="8">
+        <f ca="1">(RANDBETWEEN(H4 * J2, H4 * K2))</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <f ca="1">(RANDBETWEEN(B5 * J2, B5 * K2))</f>
+        <v>50</v>
+      </c>
+      <c r="C6" s="8">
+        <f ca="1">(RANDBETWEEN(C5 * J2, C5 * K2))</f>
+        <v>53</v>
+      </c>
+      <c r="D6" s="8">
+        <f ca="1">(RANDBETWEEN(D5 * J2, D5 * K2))</f>
+        <v>53</v>
+      </c>
+      <c r="E6" s="8">
+        <f ca="1">(RANDBETWEEN(E5 * J2, E5 * K2))</f>
+        <v>55</v>
+      </c>
+      <c r="F6" s="8">
+        <f ca="1">(RANDBETWEEN(F5 * J2, F5 * K2))</f>
+        <v>53</v>
+      </c>
+      <c r="G6" s="8">
+        <f ca="1">(RANDBETWEEN(G5 * J2, G5 * K2))</f>
+        <v>49</v>
+      </c>
+      <c r="H6" s="8">
+        <f ca="1">(RANDBETWEEN(H5 * J2, H5 * K2))</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <f ca="1">(RANDBETWEEN(B6 * J2, B6 * K2))</f>
+        <v>44</v>
+      </c>
+      <c r="C7" s="8">
+        <f ca="1">(RANDBETWEEN(C6 * J2, C6 * K2))</f>
+        <v>44</v>
+      </c>
+      <c r="D7" s="8">
+        <f ca="1">(RANDBETWEEN(D6 * J2, D6 * K2))</f>
+        <v>47</v>
+      </c>
+      <c r="E7" s="8">
+        <f ca="1">(RANDBETWEEN(E6 * J2, E6 * K2))</f>
+        <v>48</v>
+      </c>
+      <c r="F7" s="8">
+        <f ca="1">(RANDBETWEEN(F6 * J2, F6 * K2))</f>
+        <v>46</v>
+      </c>
+      <c r="G7" s="8">
+        <f ca="1">(RANDBETWEEN(G6 * J2, G6 * K2))</f>
+        <v>40</v>
+      </c>
+      <c r="H7" s="8">
+        <f ca="1">(RANDBETWEEN(H6 * J2, H6 * K2))</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <f ca="1">(RANDBETWEEN(B7 * J2, B7 * K2))</f>
+        <v>36</v>
+      </c>
+      <c r="C8" s="8">
+        <f ca="1">(RANDBETWEEN(C7 * J2, C7 * K2))</f>
+        <v>38</v>
+      </c>
+      <c r="D8" s="8">
+        <f ca="1">(RANDBETWEEN(D7 * J2, D7 * K2))</f>
+        <v>41</v>
+      </c>
+      <c r="E8" s="8">
+        <f ca="1">(RANDBETWEEN(E7 * J2, E7 * K2))</f>
+        <v>39</v>
+      </c>
+      <c r="F8" s="8">
+        <f ca="1">(RANDBETWEEN(F7 * J2, F7 * K2))</f>
+        <v>40</v>
+      </c>
+      <c r="G8" s="8">
+        <f ca="1">(RANDBETWEEN(G7 * J2, G7 * K2))</f>
+        <v>34</v>
+      </c>
+      <c r="H8" s="8">
+        <f ca="1">(RANDBETWEEN(H7 * J2, H7 * K2))</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <f ca="1">(RANDBETWEEN(B8 * J2, B8 * K2))</f>
+        <v>30</v>
+      </c>
+      <c r="C9" s="8">
+        <f ca="1">(RANDBETWEEN(C8 * J2, C8 * K2))</f>
+        <v>34</v>
+      </c>
+      <c r="D9" s="8">
+        <f ca="1">(RANDBETWEEN(D8 * J2, D8 * K2))</f>
+        <v>35</v>
+      </c>
+      <c r="E9" s="8">
+        <f ca="1">(RANDBETWEEN(E8 * J2, E8 * K2))</f>
+        <v>33</v>
+      </c>
+      <c r="F9" s="8">
+        <f ca="1">(RANDBETWEEN(F8 * J2, F8 * K2))</f>
+        <v>34</v>
+      </c>
+      <c r="G9" s="8">
+        <f ca="1">(RANDBETWEEN(G8 * J2, G8 * K2))</f>
+        <v>30</v>
+      </c>
+      <c r="H9" s="8">
+        <f ca="1">(RANDBETWEEN(H8 * J2, H8 * K2))</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <f ca="1">(RANDBETWEEN(B9 * J2, B9 * K2))</f>
+        <v>24</v>
+      </c>
+      <c r="C10" s="8">
+        <f ca="1">(RANDBETWEEN(C9 * J2, C9 * K2))</f>
+        <v>30</v>
+      </c>
+      <c r="D10" s="8">
+        <f ca="1">(RANDBETWEEN(D9 * J2, D9 * K2))</f>
+        <v>30</v>
+      </c>
+      <c r="E10" s="8">
+        <f ca="1">(RANDBETWEEN(E9 * J2, E9 * K2))</f>
+        <v>29</v>
+      </c>
+      <c r="F10" s="8">
+        <f ca="1">(RANDBETWEEN(F9 * J2, F9 * K2))</f>
+        <v>28</v>
+      </c>
+      <c r="G10" s="8">
+        <f ca="1">(RANDBETWEEN(G9 * J2, G9 * K2))</f>
+        <v>24</v>
+      </c>
+      <c r="H10" s="8">
+        <f ca="1">(RANDBETWEEN(H9 * J2, H9 * K2))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <f ca="1">(RANDBETWEEN(B10 * J2, B10 * K2))</f>
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <f ca="1">(RANDBETWEEN(C10 * J2, C10 * K2))</f>
+        <v>26</v>
+      </c>
+      <c r="D11" s="8">
+        <f ca="1">(RANDBETWEEN(D10 * J2, D10 * K2))</f>
+        <v>24</v>
+      </c>
+      <c r="E11" s="8">
+        <f ca="1">(RANDBETWEEN(E10 * J2, E10 * K2))</f>
+        <v>24</v>
+      </c>
+      <c r="F11" s="8">
+        <f ca="1">(RANDBETWEEN(F10 * J2, F10 * K2))</f>
+        <v>24</v>
+      </c>
+      <c r="G11" s="8">
+        <f ca="1">(RANDBETWEEN(G10 * J2, G10 * K2))</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="8">
+        <f ca="1">(RANDBETWEEN(H10 * J2, H10 * K2))</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" ref="A12:A21" si="1">A11 + 1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <f ca="1">(RANDBETWEEN(B11 * J2, B11 * K2))</f>
+        <v>18</v>
+      </c>
+      <c r="C12" s="8">
+        <f ca="1">(RANDBETWEEN(C11 * J2, C11 * K2))</f>
+        <v>21</v>
+      </c>
+      <c r="D12" s="8">
+        <f ca="1">(RANDBETWEEN(D11 * J2, D11 * K2))</f>
+        <v>21</v>
+      </c>
+      <c r="E12" s="8">
+        <f ca="1">(RANDBETWEEN(E11 * J2, E11 * K2))</f>
+        <v>21</v>
+      </c>
+      <c r="F12" s="8">
+        <f ca="1">(RANDBETWEEN(F11 * J2, F11 * K2))</f>
+        <v>21</v>
+      </c>
+      <c r="G12" s="8">
+        <f ca="1">(RANDBETWEEN(G11 * J2, G11 * K2))</f>
+        <v>17</v>
+      </c>
+      <c r="H12" s="8">
+        <f ca="1">(RANDBETWEEN(H11 * J2, H11 * K2))</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <f ca="1">(RANDBETWEEN(B12 * J2, B12 * K2))</f>
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <f ca="1">(RANDBETWEEN(C12 * J2, C12 * K2))</f>
+        <v>18</v>
+      </c>
+      <c r="D13" s="8">
+        <f ca="1">(RANDBETWEEN(D12 * J2, D12 * K2))</f>
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
+        <f ca="1">(RANDBETWEEN(E12 * J2, E12 * K2))</f>
+        <v>18</v>
+      </c>
+      <c r="F13" s="8">
+        <f ca="1">(RANDBETWEEN(F12 * J2, F12 * K2))</f>
+        <v>18</v>
+      </c>
+      <c r="G13" s="8">
+        <f ca="1">(RANDBETWEEN(G12 * J2, G12 * K2))</f>
+        <v>15</v>
+      </c>
+      <c r="H13" s="8">
+        <f ca="1">(RANDBETWEEN(H12 * J2, H12 * K2))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <f ca="1">(RANDBETWEEN(B13 * J2, B13 * K2))</f>
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <f ca="1">(RANDBETWEEN(C13 * J2, C13 * K2))</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="8">
+        <f ca="1">(RANDBETWEEN(D13 * J2, D13 * K2))</f>
+        <v>15</v>
+      </c>
+      <c r="E14" s="8">
+        <f ca="1">(RANDBETWEEN(E13 * J2, E13 * K2))</f>
+        <v>16</v>
+      </c>
+      <c r="F14" s="8">
+        <f ca="1">(RANDBETWEEN(F13 * J2, F13 * K2))</f>
+        <v>16</v>
+      </c>
+      <c r="G14" s="8">
+        <f ca="1">(RANDBETWEEN(G13 * J2, G13 * K2))</f>
+        <v>13</v>
+      </c>
+      <c r="H14" s="8">
+        <f ca="1">(RANDBETWEEN(H13 * J2, H13 * K2))</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <f ca="1">(RANDBETWEEN(B14 * J2, B14 * K2))</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="8">
+        <f ca="1">(RANDBETWEEN(C14 * J2, C14 * K2))</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="8">
+        <f ca="1">(RANDBETWEEN(D14 * J2, D14 * K2))</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="8">
+        <f ca="1">(RANDBETWEEN(E14 * J2, E14 * K2))</f>
+        <v>14</v>
+      </c>
+      <c r="F15" s="8">
+        <f ca="1">(RANDBETWEEN(F14 * J2, F14 * K2))</f>
+        <v>14</v>
+      </c>
+      <c r="G15" s="8">
+        <f ca="1">(RANDBETWEEN(G14 * J2, G14 * K2))</f>
+        <v>11</v>
+      </c>
+      <c r="H15" s="8">
+        <f ca="1">(RANDBETWEEN(H14 * J2, H14 * K2))</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <f ca="1">(RANDBETWEEN(B15 * J2, B15 * K2))</f>
+        <v>10</v>
+      </c>
+      <c r="C16" s="8">
+        <f ca="1">(RANDBETWEEN(C15 * J2, C15 * K2))</f>
+        <v>11</v>
+      </c>
+      <c r="D16" s="8">
+        <f ca="1">(RANDBETWEEN(D15 * J2, D15 * K2))</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <f ca="1">(RANDBETWEEN(E15 * J2, E15 * K2))</f>
+        <v>12</v>
+      </c>
+      <c r="F16" s="8">
+        <f ca="1">(RANDBETWEEN(F15 * J2, F15 * K2))</f>
+        <v>12</v>
+      </c>
+      <c r="G16" s="8">
+        <f ca="1">(RANDBETWEEN(G15 * J2, G15 * K2))</f>
+        <v>9</v>
+      </c>
+      <c r="H16" s="8">
+        <f ca="1">(RANDBETWEEN(H15 * J2, H15 * K2))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <f ca="1">(RANDBETWEEN(B16 * J2, B16 * K2))</f>
+        <v>9</v>
+      </c>
+      <c r="C17" s="8">
+        <f ca="1">(RANDBETWEEN(C16 * J2, C16 * K2))</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <f ca="1">(RANDBETWEEN(D16 * J2, D16 * K2))</f>
+        <v>8</v>
+      </c>
+      <c r="E17" s="8">
+        <f ca="1">(RANDBETWEEN(E16 * J2, E16 * K2))</f>
+        <v>10</v>
+      </c>
+      <c r="F17" s="8">
+        <f ca="1">(RANDBETWEEN(F16 * J2, F16 * K2))</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="8">
+        <f ca="1">(RANDBETWEEN(G16 * J2, G16 * K2))</f>
+        <v>8</v>
+      </c>
+      <c r="H17" s="8">
+        <f ca="1">(RANDBETWEEN(H16 * J2, H16 * K2))</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <f ca="1">(RANDBETWEEN(B17 * J2, B17 * K2))</f>
+        <v>8</v>
+      </c>
+      <c r="C18" s="8">
+        <f ca="1">(RANDBETWEEN(C17 * J2, C17 * K2))</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="8">
+        <f ca="1">(RANDBETWEEN(D17 * J2, D17 * K2))</f>
+        <v>7</v>
+      </c>
+      <c r="E18" s="8">
+        <f ca="1">(RANDBETWEEN(E17 * J2, E17 * K2))</f>
+        <v>9</v>
+      </c>
+      <c r="F18" s="8">
+        <f ca="1">(RANDBETWEEN(F17 * J2, F17 * K2))</f>
+        <v>8</v>
+      </c>
+      <c r="G18" s="8">
+        <f ca="1">(RANDBETWEEN(G17 * J2, G17 * K2))</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="8">
+        <f ca="1">(RANDBETWEEN(H17 * J2, H17 * K2))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <f ca="1">(RANDBETWEEN(B18 * J2, B18 * K2))</f>
+        <v>7</v>
+      </c>
+      <c r="C19" s="8">
+        <f ca="1">(RANDBETWEEN(C18 * J2, C18 * K2))</f>
+        <v>7</v>
+      </c>
+      <c r="D19" s="8">
+        <f ca="1">(RANDBETWEEN(D18 * J2, D18 * K2))</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="8">
+        <f ca="1">(RANDBETWEEN(E18 * J2, E18 * K2))</f>
+        <v>8</v>
+      </c>
+      <c r="F19" s="8">
+        <f ca="1">(RANDBETWEEN(F18 * J2, F18 * K2))</f>
+        <v>7</v>
+      </c>
+      <c r="G19" s="8">
+        <f ca="1">(RANDBETWEEN(G18 * J2, G18 * K2))</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="8">
+        <f ca="1">(RANDBETWEEN(H18 * J2, H18 * K2))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <f ca="1">(RANDBETWEEN(B19 * J2, B19 * K2))</f>
+        <v>6</v>
+      </c>
+      <c r="C20" s="8">
+        <f ca="1">(RANDBETWEEN(C19 * J2, C19 * K2))</f>
+        <v>6</v>
+      </c>
+      <c r="D20" s="8">
+        <f ca="1">(RANDBETWEEN(D19 * J2, D19 * K2))</f>
+        <v>5</v>
+      </c>
+      <c r="E20" s="8">
+        <f ca="1">(RANDBETWEEN(E19 * J2, E19 * K2))</f>
+        <v>7</v>
+      </c>
+      <c r="F20" s="8">
+        <f ca="1">(RANDBETWEEN(F19 * J2, F19 * K2))</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="8">
+        <f ca="1">(RANDBETWEEN(G19 * J2, G19 * K2))</f>
+        <v>5</v>
+      </c>
+      <c r="H20" s="8">
+        <f ca="1">(RANDBETWEEN(H19 * J2, H19 * K2))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <f ca="1">(RANDBETWEEN(B20 * J2, B20 * K2))</f>
+        <v>5</v>
+      </c>
+      <c r="C21" s="8">
+        <f ca="1">(RANDBETWEEN(C20 * J2, C20 * K2))</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="8">
+        <f ca="1">(RANDBETWEEN(D20 * J2, D20 * K2))</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <f ca="1">(RANDBETWEEN(E20 * J2, E20 * K2))</f>
+        <v>6</v>
+      </c>
+      <c r="F21" s="8">
+        <f ca="1">(RANDBETWEEN(F20 * J2, F20 * K2))</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="8">
+        <f ca="1">(RANDBETWEEN(G20 * J2, G20 * K2))</f>
+        <v>4</v>
+      </c>
+      <c r="H21" s="8">
+        <f ca="1">(RANDBETWEEN(H20 * J2, H20 * K2))</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/design docs/Formulas.xlsx
+++ b/design docs/Formulas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hex-trigger\design docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD1C099-FB73-47AF-8D9C-41809277EE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9253C-ECBE-4081-8080-477CD78A20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E86AC4BF-915C-48FD-83BF-893B16CC3FA6}"/>
   </bookViews>
@@ -337,64 +337,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.666666666666671</c:v>
+                  <c:v>73.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.166666666666671</c:v>
+                  <c:v>93.166666666666657</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.166666666666671</c:v>
+                  <c:v>147.16666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.33333333333334</c:v>
+                  <c:v>206.83333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215.76190476190476</c:v>
+                  <c:v>332.26190476190476</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>340.63690476190476</c:v>
+                  <c:v>420.13690476190476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>395.08134920634922</c:v>
+                  <c:v>535.35912698412699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>474.68134920634918</c:v>
+                  <c:v>727.95912698412701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>603.04498556998556</c:v>
+                  <c:v>989.32276334776338</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>656.54498556998556</c:v>
+                  <c:v>1158.5727633477634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>766.23729326229329</c:v>
+                  <c:v>1359.5727633477634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>901.8801504051504</c:v>
+                  <c:v>1706.5727633477634</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1068.6134837384836</c:v>
+                  <c:v>2207.6394300144302</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1181.7384837384836</c:v>
+                  <c:v>2498.7019300144302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1336.3267190326012</c:v>
+                  <c:v>2950.1725182497244</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1598.3267190326012</c:v>
+                  <c:v>3555.7836293608352</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2015.853034822075</c:v>
+                  <c:v>3984.0994188345194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2409.5030348220748</c:v>
+                  <c:v>4581.1994188345197</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2961.8363681554083</c:v>
+                  <c:v>5160.8184664535675</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,64 +452,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.333333333333336</c:v>
+                  <c:v>14.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.083333333333336</c:v>
+                  <c:v>24.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.88333333333334</c:v>
+                  <c:v>31.116666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.550000000000011</c:v>
+                  <c:v>47.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.835714285714289</c:v>
+                  <c:v>76.235714285714295</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121.33571428571429</c:v>
+                  <c:v>90.860714285714295</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.55793650793652</c:v>
+                  <c:v>136.52738095238095</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>182.35793650793653</c:v>
+                  <c:v>183.02738095238095</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>205.08520923520925</c:v>
+                  <c:v>203.48192640692639</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>267.75187590187591</c:v>
+                  <c:v>249.98192640692639</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>303.44418359418358</c:v>
+                  <c:v>338.75115717615716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>367.87275502275503</c:v>
+                  <c:v>382.53687146187144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>417.20608835608834</c:v>
+                  <c:v>428.33687146187145</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>525.14358835608834</c:v>
+                  <c:v>538.7118714618714</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>635.61417659138249</c:v>
+                  <c:v>643.12363616775372</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>775.78084325804912</c:v>
+                  <c:v>820.45696950108709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>831.41242220541756</c:v>
+                  <c:v>881.08854844845553</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>951.8624222054176</c:v>
+                  <c:v>1013.3385484484555</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>998.67194601494145</c:v>
+                  <c:v>1176.1004532103602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,64 +567,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>9.1666666666666679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>17.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.8</c:v>
+                  <c:v>34.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.8</c:v>
+                  <c:v>62.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.085714285714289</c:v>
+                  <c:v>80.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.460714285714289</c:v>
+                  <c:v>120.84166666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.34960317460317</c:v>
+                  <c:v>178.73055555555555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149.94960317460317</c:v>
+                  <c:v>258.83055555555552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>184.67687590187589</c:v>
+                  <c:v>297.92146464646464</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>244.01020923520923</c:v>
+                  <c:v>361.00479797979796</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.8563630813631</c:v>
+                  <c:v>429.62018259518254</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>307.78493450993454</c:v>
+                  <c:v>548.90589688089688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>363.91826784326787</c:v>
+                  <c:v>644.23923021423025</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>445.54326784326787</c:v>
+                  <c:v>703.11423021423025</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>555.42562078444439</c:v>
+                  <c:v>871.40834786128903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>665.59228745111102</c:v>
+                  <c:v>1024.6861256390669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>750.17123481953206</c:v>
+                  <c:v>1175.8440203759089</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>848.02123481953208</c:v>
+                  <c:v>1469.4440203759091</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>920.11647291477016</c:v>
+                  <c:v>1580.9678298997187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,64 +682,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.333333333333333</c:v>
+                  <c:v>5.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>7.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.4333333333333336</c:v>
+                  <c:v>12.466666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.1</c:v>
+                  <c:v>16.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.957142857142857</c:v>
+                  <c:v>19.157142857142858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.332142857142856</c:v>
+                  <c:v>24.032142857142858</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.776587301587298</c:v>
+                  <c:v>32.143253968253973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.976587301587301</c:v>
+                  <c:v>39.843253968253975</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.158405483405481</c:v>
+                  <c:v>49.297799422799429</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.658405483405481</c:v>
+                  <c:v>59.297799422799429</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74.196867021867021</c:v>
+                  <c:v>66.990107115107122</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.125438450438452</c:v>
+                  <c:v>83.990107115107122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103.32543845043845</c:v>
+                  <c:v>89.990107115107122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>115.01293845043845</c:v>
+                  <c:v>111.30260711510712</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127.71882080337963</c:v>
+                  <c:v>140.94966593863654</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157.10770969226851</c:v>
+                  <c:v>165.33855482752543</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>174.00244653437377</c:v>
+                  <c:v>184.3911864064728</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>193.05244653437379</c:v>
+                  <c:v>198.19118640647281</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>234.76673224865951</c:v>
+                  <c:v>213.28642450171091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,28 +1066,28 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.5</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.75</c:v>
+                  <c:v>94.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109.95</c:v>
+                  <c:v>129.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>133.94999999999999</c:v>
+                  <c:v>172.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.80714285714285</c:v>
+                  <c:v>211.20714285714286</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>186.68214285714285</c:v>
+                  <c:v>263.33214285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>220.90436507936508</c:v>
+                  <c:v>302.66547619047617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,31 +1135,31 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.833333333333329</c:v>
+                  <c:v>54.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.583333333333329</c:v>
+                  <c:v>74.083333333333343</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114.18333333333334</c:v>
+                  <c:v>97.083333333333343</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>150.68333333333334</c:v>
+                  <c:v>126.91666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>173.39761904761906</c:v>
+                  <c:v>159.3452380952381</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>205.27261904761906</c:v>
+                  <c:v>181.7202380952381</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>239.71706349206352</c:v>
+                  <c:v>221.49801587301587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,31 +1207,31 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.75</c:v>
+                  <c:v>86.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118.15</c:v>
+                  <c:v>120.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>144.81666666666666</c:v>
+                  <c:v>156.44999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>182.53095238095239</c:v>
+                  <c:v>179.59285714285713</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>220.78095238095239</c:v>
+                  <c:v>213.21785714285713</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>248.66984126984127</c:v>
+                  <c:v>250.66230158730156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,31 +1279,31 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.166666666666671</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108.66666666666667</c:v>
+                  <c:v>73.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>151.26666666666668</c:v>
+                  <c:v>94.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>198.26666666666668</c:v>
+                  <c:v>119.08333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>244.55238095238096</c:v>
+                  <c:v>152.94047619047618</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>284.05238095238099</c:v>
+                  <c:v>184.31547619047618</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>341.9412698412699</c:v>
+                  <c:v>208.09325396825395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,37 +1755,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>14</c:v>
@@ -1797,19 +1797,19 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,61 +1926,61 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>74</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2097,46 +2097,46 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8</c:v>
@@ -2268,61 +2268,61 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2439,49 +2439,49 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>8</c:v>
@@ -2610,61 +2610,61 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,40 +2783,40 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>12</c:v>
@@ -5330,19 +5330,19 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C22" ca="1" si="1">C2 + (RANDBETWEEN(C2, 5 * C2) / A3)</f>
-        <v>15</v>
+        <v>27.5</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D22" ca="1" si="2">D2 + (RANDBETWEEN(D2, 5 * D2) / A3)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E22" ca="1" si="3">E2 + (RANDBETWEEN(E2, 5 * E2) / A3)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F22" ca="1" si="4">F2 + (RANDBETWEEN(F2, 5 * F2) / A3)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5356,19 +5356,19 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">C3 + (RANDBETWEEN(C3, 5 * C3) / A4)</f>
-        <v>33.666666666666671</v>
+        <v>73.166666666666657</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22.333333333333336</v>
+        <v>14.666666666666668</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9.1666666666666679</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5382,19 +5382,19 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>49.166666666666671</v>
+        <v>93.166666666666657</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45.083333333333336</v>
+        <v>24.916666666666668</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4.833333333333333</v>
+        <v>7.666666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5408,19 +5408,19 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>91.166666666666671</v>
+        <v>147.16666666666666</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>55.88333333333334</v>
+        <v>31.116666666666667</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>30.8</v>
+        <v>34.466666666666669</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>9.4333333333333336</v>
+        <v>12.466666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>139.33333333333334</v>
+        <v>206.83333333333331</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>69.550000000000011</v>
+        <v>47.95</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>45.8</v>
+        <v>62.466666666666669</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>11.1</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,19 +5460,19 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>215.76190476190476</v>
+        <v>332.26190476190476</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>95.835714285714289</v>
+        <v>76.235714285714295</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>69.085714285714289</v>
+        <v>80.466666666666669</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>13.957142857142857</v>
+        <v>19.157142857142858</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5486,19 +5486,19 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>340.63690476190476</v>
+        <v>420.13690476190476</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>121.33571428571429</v>
+        <v>90.860714285714295</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>88.460714285714289</v>
+        <v>120.84166666666667</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>22.332142857142856</v>
+        <v>24.032142857142858</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5512,19 +5512,19 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>395.08134920634922</v>
+        <v>535.35912698412699</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>137.55793650793652</v>
+        <v>136.52738095238095</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>128.34960317460317</v>
+        <v>178.73055555555555</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>26.776587301587298</v>
+        <v>32.143253968253973</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5538,19 +5538,19 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>474.68134920634918</v>
+        <v>727.95912698412701</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>182.35793650793653</v>
+        <v>183.02738095238095</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>149.94960317460317</v>
+        <v>258.83055555555552</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>32.976587301587301</v>
+        <v>39.843253968253975</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5564,19 +5564,19 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>603.04498556998556</v>
+        <v>989.32276334776338</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>205.08520923520925</v>
+        <v>203.48192640692639</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>184.67687590187589</v>
+        <v>297.92146464646464</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>46.158405483405481</v>
+        <v>49.297799422799429</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,19 +5590,19 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>656.54498556998556</v>
+        <v>1158.5727633477634</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>267.75187590187591</v>
+        <v>249.98192640692639</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>244.01020923520923</v>
+        <v>361.00479797979796</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>60.658405483405481</v>
+        <v>59.297799422799429</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5616,19 +5616,19 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>766.23729326229329</v>
+        <v>1359.5727633477634</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>303.44418359418358</v>
+        <v>338.75115717615716</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>270.8563630813631</v>
+        <v>429.62018259518254</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>74.196867021867021</v>
+        <v>66.990107115107122</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5642,19 +5642,19 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>901.8801504051504</v>
+        <v>1706.5727633477634</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>367.87275502275503</v>
+        <v>382.53687146187144</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>307.78493450993454</v>
+        <v>548.90589688089688</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>93.125438450438452</v>
+        <v>83.990107115107122</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5668,19 +5668,19 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1068.6134837384836</v>
+        <v>2207.6394300144302</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>417.20608835608834</v>
+        <v>428.33687146187145</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>363.91826784326787</v>
+        <v>644.23923021423025</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>103.32543845043845</v>
+        <v>89.990107115107122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5694,19 +5694,19 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1181.7384837384836</v>
+        <v>2498.7019300144302</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>525.14358835608834</v>
+        <v>538.7118714618714</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>445.54326784326787</v>
+        <v>703.11423021423025</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>115.01293845043845</v>
+        <v>111.30260711510712</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5720,19 +5720,19 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1336.3267190326012</v>
+        <v>2950.1725182497244</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>635.61417659138249</v>
+        <v>643.12363616775372</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>555.42562078444439</v>
+        <v>871.40834786128903</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>127.71882080337963</v>
+        <v>140.94966593863654</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5746,19 +5746,19 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1598.3267190326012</v>
+        <v>3555.7836293608352</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>775.78084325804912</v>
+        <v>820.45696950108709</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>665.59228745111102</v>
+        <v>1024.6861256390669</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>157.10770969226851</v>
+        <v>165.33855482752543</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,19 +5772,19 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2015.853034822075</v>
+        <v>3984.0994188345194</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>831.41242220541756</v>
+        <v>881.08854844845553</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>750.17123481953206</v>
+        <v>1175.8440203759089</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>174.00244653437377</v>
+        <v>184.3911864064728</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2409.5030348220748</v>
+        <v>4581.1994188345197</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>951.8624222054176</v>
+        <v>1013.3385484484555</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>848.02123481953208</v>
+        <v>1469.4440203759091</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>193.05244653437379</v>
+        <v>198.19118640647281</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,19 +5824,19 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2961.8363681554083</v>
+        <v>5160.8184664535675</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>998.67194601494145</v>
+        <v>1176.1004532103602</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>920.11647291477016</v>
+        <v>1580.9678298997187</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>234.76673224865951</v>
+        <v>213.28642450171091</v>
       </c>
     </row>
   </sheetData>
@@ -5850,7 +5850,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5913,15 +5913,15 @@
       </c>
       <c r="C3" s="10">
         <f t="shared" ref="C3:C11" ca="1" si="1">(C2 + (RANDBETWEEN(C2, C2 * 2) / A2))</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D11" ca="1" si="2">(D2 + (RANDBETWEEN(D2, D2 * 2) / A2))</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E11" ca="1" si="3">(E2 + (RANDBETWEEN(E2, E2 * 2) / A2))</f>
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5930,19 +5930,19 @@
       </c>
       <c r="B4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="C4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>46.5</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>47.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5951,19 +5951,19 @@
       </c>
       <c r="B5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>61.5</v>
+        <v>68.5</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>63.833333333333329</v>
+        <v>54.333333333333336</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>76.166666666666671</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,19 +5972,19 @@
       </c>
       <c r="B6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>83.75</v>
+        <v>94.75</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>91.583333333333329</v>
+        <v>74.083333333333343</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>90.75</v>
+        <v>86.75</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>108.66666666666667</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,19 +5993,19 @@
       </c>
       <c r="B7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>109.95</v>
+        <v>129.35</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>114.18333333333334</v>
+        <v>97.083333333333343</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>118.15</v>
+        <v>120.95</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>151.26666666666668</v>
+        <v>94.25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6014,19 +6014,19 @@
       </c>
       <c r="B8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>133.94999999999999</v>
+        <v>172.35</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>150.68333333333334</v>
+        <v>126.91666666666667</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>144.81666666666666</v>
+        <v>156.44999999999999</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>198.26666666666668</v>
+        <v>119.08333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,19 +6035,19 @@
       </c>
       <c r="B9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>153.80714285714285</v>
+        <v>211.20714285714286</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>173.39761904761906</v>
+        <v>159.3452380952381</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>182.53095238095239</v>
+        <v>179.59285714285713</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>244.55238095238096</v>
+        <v>152.94047619047618</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6056,19 +6056,19 @@
       </c>
       <c r="B10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>186.68214285714285</v>
+        <v>263.33214285714286</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>205.27261904761906</v>
+        <v>181.7202380952381</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>220.78095238095239</v>
+        <v>213.21785714285713</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>284.05238095238099</v>
+        <v>184.31547619047618</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6077,19 +6077,19 @@
       </c>
       <c r="B11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>220.90436507936508</v>
+        <v>302.66547619047617</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>239.71706349206352</v>
+        <v>221.49801587301587</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>248.66984126984127</v>
+        <v>250.66230158730156</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>341.9412698412699</v>
+        <v>208.09325396825395</v>
       </c>
     </row>
   </sheetData>
@@ -6103,7 +6103,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6198,31 +6198,31 @@
       </c>
       <c r="B3" s="8">
         <f ca="1">(RANDBETWEEN(B2 * J2, B2 * K2))</f>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">(RANDBETWEEN(C2 * J2, C2 * K2))</f>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="8">
         <f ca="1">(RANDBETWEEN(D2 * J2, D2 * K2))</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8">
         <f ca="1">(RANDBETWEEN(E2 * J2, E2 * K2))</f>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">(RANDBETWEEN(F2 * J2, F2 * K2))</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G3" s="8">
         <f ca="1">(RANDBETWEEN(G2 * J2, G2 * K2))</f>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H3" s="8">
         <f ca="1">(RANDBETWEEN(H2 * J2, H2 * K2))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6232,31 +6232,31 @@
       </c>
       <c r="B4" s="8">
         <f ca="1">(RANDBETWEEN(B3 * J2, B3 * K2))</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="8">
         <f ca="1">(RANDBETWEEN(C3 * J2, C3 * K2))</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8">
         <f ca="1">(RANDBETWEEN(D3 * J2, D3 * K2))</f>
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" s="8">
         <f ca="1">(RANDBETWEEN(E3 * J2, E3 * K2))</f>
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F4" s="8">
         <f ca="1">(RANDBETWEEN(F3 * J2, F3 * K2))</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="8">
         <f ca="1">(RANDBETWEEN(G3 * J2, G3 * K2))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="8">
         <f ca="1">(RANDBETWEEN(H3 * J2, H3 * K2))</f>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6270,27 +6270,27 @@
       </c>
       <c r="C5" s="8">
         <f ca="1">(RANDBETWEEN(C4 * J2, C4 * K2))</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8">
         <f ca="1">(RANDBETWEEN(D4 * J2, D4 * K2))</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" s="8">
         <f ca="1">(RANDBETWEEN(E4 * J2, E4 * K2))</f>
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <f ca="1">(RANDBETWEEN(F4 * J2, F4 * K2))</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8">
         <f ca="1">(RANDBETWEEN(G4 * J2, G4 * K2))</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H5" s="8">
         <f ca="1">(RANDBETWEEN(H4 * J2, H4 * K2))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6300,19 +6300,19 @@
       </c>
       <c r="B6" s="8">
         <f ca="1">(RANDBETWEEN(B5 * J2, B5 * K2))</f>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="8">
         <f ca="1">(RANDBETWEEN(C5 * J2, C5 * K2))</f>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8">
         <f ca="1">(RANDBETWEEN(D5 * J2, D5 * K2))</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6" s="8">
         <f ca="1">(RANDBETWEEN(E5 * J2, E5 * K2))</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">(RANDBETWEEN(F5 * J2, F5 * K2))</f>
@@ -6320,11 +6320,11 @@
       </c>
       <c r="G6" s="8">
         <f ca="1">(RANDBETWEEN(G5 * J2, G5 * K2))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" s="8">
         <f ca="1">(RANDBETWEEN(H5 * J2, H5 * K2))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6334,31 +6334,31 @@
       </c>
       <c r="B7" s="8">
         <f ca="1">(RANDBETWEEN(B6 * J2, B6 * K2))</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="8">
         <f ca="1">(RANDBETWEEN(C6 * J2, C6 * K2))</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D7" s="8">
         <f ca="1">(RANDBETWEEN(D6 * J2, D6 * K2))</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E7" s="8">
         <f ca="1">(RANDBETWEEN(E6 * J2, E6 * K2))</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8">
         <f ca="1">(RANDBETWEEN(F6 * J2, F6 * K2))</f>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G7" s="8">
         <f ca="1">(RANDBETWEEN(G6 * J2, G6 * K2))</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" s="8">
         <f ca="1">(RANDBETWEEN(H6 * J2, H6 * K2))</f>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,31 +6368,31 @@
       </c>
       <c r="B8" s="8">
         <f ca="1">(RANDBETWEEN(B7 * J2, B7 * K2))</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="8">
         <f ca="1">(RANDBETWEEN(C7 * J2, C7 * K2))</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D8" s="8">
         <f ca="1">(RANDBETWEEN(D7 * J2, D7 * K2))</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E8" s="8">
         <f ca="1">(RANDBETWEEN(E7 * J2, E7 * K2))</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">(RANDBETWEEN(F7 * J2, F7 * K2))</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">(RANDBETWEEN(G7 * J2, G7 * K2))</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">(RANDBETWEEN(H7 * J2, H7 * K2))</f>
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6402,23 +6402,23 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">(RANDBETWEEN(B8 * J2, B8 * K2))</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8">
         <f ca="1">(RANDBETWEEN(C8 * J2, C8 * K2))</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8">
         <f ca="1">(RANDBETWEEN(D8 * J2, D8 * K2))</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9" s="8">
         <f ca="1">(RANDBETWEEN(E8 * J2, E8 * K2))</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">(RANDBETWEEN(F8 * J2, F8 * K2))</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">(RANDBETWEEN(G8 * J2, G8 * K2))</f>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="H9" s="8">
         <f ca="1">(RANDBETWEEN(H8 * J2, H8 * K2))</f>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6436,19 +6436,19 @@
       </c>
       <c r="B10" s="8">
         <f ca="1">(RANDBETWEEN(B9 * J2, B9 * K2))</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8">
         <f ca="1">(RANDBETWEEN(C9 * J2, C9 * K2))</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8">
         <f ca="1">(RANDBETWEEN(D9 * J2, D9 * K2))</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E10" s="8">
         <f ca="1">(RANDBETWEEN(E9 * J2, E9 * K2))</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">(RANDBETWEEN(F9 * J2, F9 * K2))</f>
@@ -6456,11 +6456,11 @@
       </c>
       <c r="G10" s="8">
         <f ca="1">(RANDBETWEEN(G9 * J2, G9 * K2))</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">(RANDBETWEEN(H9 * J2, H9 * K2))</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,31 +6470,31 @@
       </c>
       <c r="B11" s="8">
         <f ca="1">(RANDBETWEEN(B10 * J2, B10 * K2))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" s="8">
         <f ca="1">(RANDBETWEEN(C10 * J2, C10 * K2))</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D11" s="8">
         <f ca="1">(RANDBETWEEN(D10 * J2, D10 * K2))</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="8">
         <f ca="1">(RANDBETWEEN(E10 * J2, E10 * K2))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">(RANDBETWEEN(F10 * J2, F10 * K2))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">(RANDBETWEEN(G10 * J2, G10 * K2))</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">(RANDBETWEEN(H10 * J2, H10 * K2))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6504,19 +6504,19 @@
       </c>
       <c r="B12" s="8">
         <f ca="1">(RANDBETWEEN(B11 * J2, B11 * K2))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8">
         <f ca="1">(RANDBETWEEN(C11 * J2, C11 * K2))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="8">
         <f ca="1">(RANDBETWEEN(D11 * J2, D11 * K2))</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8">
         <f ca="1">(RANDBETWEEN(E11 * J2, E11 * K2))</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">(RANDBETWEEN(F11 * J2, F11 * K2))</f>
@@ -6524,11 +6524,11 @@
       </c>
       <c r="G12" s="8">
         <f ca="1">(RANDBETWEEN(G11 * J2, G11 * K2))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">(RANDBETWEEN(H11 * J2, H11 * K2))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,27 +6538,27 @@
       </c>
       <c r="B13" s="8">
         <f ca="1">(RANDBETWEEN(B12 * J2, B12 * K2))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="8">
         <f ca="1">(RANDBETWEEN(C12 * J2, C12 * K2))</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D13" s="8">
         <f ca="1">(RANDBETWEEN(D12 * J2, D12 * K2))</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8">
         <f ca="1">(RANDBETWEEN(E12 * J2, E12 * K2))</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">(RANDBETWEEN(F12 * J2, F12 * K2))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="8">
         <f ca="1">(RANDBETWEEN(G12 * J2, G12 * K2))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">(RANDBETWEEN(H12 * J2, H12 * K2))</f>
@@ -6576,27 +6576,27 @@
       </c>
       <c r="C14" s="8">
         <f ca="1">(RANDBETWEEN(C13 * J2, C13 * K2))</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="8">
         <f ca="1">(RANDBETWEEN(D13 * J2, D13 * K2))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14" s="8">
         <f ca="1">(RANDBETWEEN(E13 * J2, E13 * K2))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">(RANDBETWEEN(F13 * J2, F13 * K2))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="8">
         <f ca="1">(RANDBETWEEN(G13 * J2, G13 * K2))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">(RANDBETWEEN(H13 * J2, H13 * K2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6610,23 +6610,23 @@
       </c>
       <c r="C15" s="8">
         <f ca="1">(RANDBETWEEN(C14 * J2, C14 * K2))</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="8">
         <f ca="1">(RANDBETWEEN(D14 * J2, D14 * K2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8">
         <f ca="1">(RANDBETWEEN(E14 * J2, E14 * K2))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8">
         <f ca="1">(RANDBETWEEN(F14 * J2, F14 * K2))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" s="8">
         <f ca="1">(RANDBETWEEN(G14 * J2, G14 * K2))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" s="8">
         <f ca="1">(RANDBETWEEN(H14 * J2, H14 * K2))</f>
@@ -6644,23 +6644,23 @@
       </c>
       <c r="C16" s="8">
         <f ca="1">(RANDBETWEEN(C15 * J2, C15 * K2))</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="8">
         <f ca="1">(RANDBETWEEN(D15 * J2, D15 * K2))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="8">
         <f ca="1">(RANDBETWEEN(E15 * J2, E15 * K2))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16" s="8">
         <f ca="1">(RANDBETWEEN(F15 * J2, F15 * K2))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" s="8">
         <f ca="1">(RANDBETWEEN(G15 * J2, G15 * K2))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8">
         <f ca="1">(RANDBETWEEN(H15 * J2, H15 * K2))</f>
@@ -6674,11 +6674,11 @@
       </c>
       <c r="B17" s="8">
         <f ca="1">(RANDBETWEEN(B16 * J2, B16 * K2))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="8">
         <f ca="1">(RANDBETWEEN(C16 * J2, C16 * K2))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="8">
         <f ca="1">(RANDBETWEEN(D16 * J2, D16 * K2))</f>
@@ -6686,15 +6686,15 @@
       </c>
       <c r="E17" s="8">
         <f ca="1">(RANDBETWEEN(E16 * J2, E16 * K2))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" s="8">
         <f ca="1">(RANDBETWEEN(F16 * J2, F16 * K2))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="8">
         <f ca="1">(RANDBETWEEN(G16 * J2, G16 * K2))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17" s="8">
         <f ca="1">(RANDBETWEEN(H16 * J2, H16 * K2))</f>
@@ -6708,11 +6708,11 @@
       </c>
       <c r="B18" s="8">
         <f ca="1">(RANDBETWEEN(B17 * J2, B17 * K2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="8">
         <f ca="1">(RANDBETWEEN(C17 * J2, C17 * K2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="8">
         <f ca="1">(RANDBETWEEN(D17 * J2, D17 * K2))</f>
@@ -6720,7 +6720,7 @@
       </c>
       <c r="E18" s="8">
         <f ca="1">(RANDBETWEEN(E17 * J2, E17 * K2))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" s="8">
         <f ca="1">(RANDBETWEEN(F17 * J2, F17 * K2))</f>
@@ -6728,7 +6728,7 @@
       </c>
       <c r="G18" s="8">
         <f ca="1">(RANDBETWEEN(G17 * J2, G17 * K2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="8">
         <f ca="1">(RANDBETWEEN(H17 * J2, H17 * K2))</f>
@@ -6742,11 +6742,11 @@
       </c>
       <c r="B19" s="8">
         <f ca="1">(RANDBETWEEN(B18 * J2, B18 * K2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="8">
         <f ca="1">(RANDBETWEEN(C18 * J2, C18 * K2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="8">
         <f ca="1">(RANDBETWEEN(D18 * J2, D18 * K2))</f>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="E19" s="8">
         <f ca="1">(RANDBETWEEN(E18 * J2, E18 * K2))</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="8">
         <f ca="1">(RANDBETWEEN(F18 * J2, F18 * K2))</f>
@@ -6762,7 +6762,7 @@
       </c>
       <c r="G19" s="8">
         <f ca="1">(RANDBETWEEN(G18 * J2, G18 * K2))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="8">
         <f ca="1">(RANDBETWEEN(H18 * J2, H18 * K2))</f>
@@ -6776,11 +6776,11 @@
       </c>
       <c r="B20" s="8">
         <f ca="1">(RANDBETWEEN(B19 * J2, B19 * K2))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="8">
         <f ca="1">(RANDBETWEEN(C19 * J2, C19 * K2))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="8">
         <f ca="1">(RANDBETWEEN(D19 * J2, D19 * K2))</f>
@@ -6788,7 +6788,7 @@
       </c>
       <c r="E20" s="8">
         <f ca="1">(RANDBETWEEN(E19 * J2, E19 * K2))</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" s="8">
         <f ca="1">(RANDBETWEEN(F19 * J2, F19 * K2))</f>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="G20" s="8">
         <f ca="1">(RANDBETWEEN(G19 * J2, G19 * K2))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H20" s="8">
         <f ca="1">(RANDBETWEEN(H19 * J2, H19 * K2))</f>
@@ -6810,11 +6810,11 @@
       </c>
       <c r="B21" s="8">
         <f ca="1">(RANDBETWEEN(B20 * J2, B20 * K2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="8">
         <f ca="1">(RANDBETWEEN(C20 * J2, C20 * K2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="8">
         <f ca="1">(RANDBETWEEN(D20 * J2, D20 * K2))</f>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="E21" s="8">
         <f ca="1">(RANDBETWEEN(E20 * J2, E20 * K2))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="8">
         <f ca="1">(RANDBETWEEN(F20 * J2, F20 * K2))</f>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="G21" s="8">
         <f ca="1">(RANDBETWEEN(G20 * J2, G20 * K2))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" s="8">
         <f ca="1">(RANDBETWEEN(H20 * J2, H20 * K2))</f>

--- a/design docs/Formulas.xlsx
+++ b/design docs/Formulas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\hex-trigger\design docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD9253C-ECBE-4081-8080-477CD78A20AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEB9CC7-A7B7-4DAA-91C5-AEE269624223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{E86AC4BF-915C-48FD-83BF-893B16CC3FA6}"/>
   </bookViews>
@@ -337,64 +337,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.166666666666657</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.166666666666657</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.16666666666666</c:v>
+                  <c:v>249.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206.83333333333331</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332.26190476190476</c:v>
+                  <c:v>643.28571428571422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>420.13690476190476</c:v>
+                  <c:v>825.91071428571422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>535.35912698412699</c:v>
+                  <c:v>934.13293650793639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>727.95912698412701</c:v>
+                  <c:v>1350.2329365079363</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>989.32276334776338</c:v>
+                  <c:v>1802.7783910533908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1158.5727633477634</c:v>
+                  <c:v>2153.6117243867243</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1359.5727633477634</c:v>
+                  <c:v>2793.3809551559552</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1706.5727633477634</c:v>
+                  <c:v>3654.2380980130984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2207.6394300144302</c:v>
+                  <c:v>3933.704764679765</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2498.7019300144302</c:v>
+                  <c:v>5072.3922646797655</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2950.1725182497244</c:v>
+                  <c:v>6376.3334411503538</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3555.7836293608352</c:v>
+                  <c:v>7821.7223300392425</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3984.0994188345194</c:v>
+                  <c:v>9541.0907510918732</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4581.1994188345197</c:v>
+                  <c:v>11395.690751091874</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5160.8184664535675</c:v>
+                  <c:v>13082.83360823473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,64 +452,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.666666666666668</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.916666666666668</c:v>
+                  <c:v>23.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.116666666666667</c:v>
+                  <c:v>37.549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.95</c:v>
+                  <c:v>50.883333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.235714285714295</c:v>
+                  <c:v>84.169047619047618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.860714285714295</c:v>
+                  <c:v>126.79404761904762</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.52738095238095</c:v>
+                  <c:v>142.5718253968254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>183.02738095238095</c:v>
+                  <c:v>170.6718253968254</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>203.48192640692639</c:v>
+                  <c:v>243.94455266955265</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>249.98192640692639</c:v>
+                  <c:v>310.69455266955265</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>338.75115717615716</c:v>
+                  <c:v>386.46378343878342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>382.53687146187144</c:v>
+                  <c:v>485.53521201021198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>428.33687146187145</c:v>
+                  <c:v>537.46854534354532</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>538.7118714618714</c:v>
+                  <c:v>631.46854534354532</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>643.12363616775372</c:v>
+                  <c:v>748.52736887295714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>820.45696950108709</c:v>
+                  <c:v>821.13847998406823</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>881.08854844845553</c:v>
+                  <c:v>941.4016378788051</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1013.3385484484555</c:v>
+                  <c:v>1124.0516378788052</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1176.1004532103602</c:v>
+                  <c:v>1235.4802093073765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -567,64 +567,64 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1666666666666679</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.666666666666668</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.466666666666669</c:v>
+                  <c:v>42.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.466666666666669</c:v>
+                  <c:v>58.566666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80.466666666666669</c:v>
+                  <c:v>88.566666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.84166666666667</c:v>
+                  <c:v>111.81666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>178.73055555555555</c:v>
+                  <c:v>172.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>258.83055555555552</c:v>
+                  <c:v>234.55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>297.92146464646464</c:v>
+                  <c:v>274.36818181818182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>361.00479797979796</c:v>
+                  <c:v>373.95151515151514</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>429.62018259518254</c:v>
+                  <c:v>423.25920745920746</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>548.90589688089688</c:v>
+                  <c:v>492.04492174492174</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>644.23923021423025</c:v>
+                  <c:v>597.5782550782551</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>703.11423021423025</c:v>
+                  <c:v>728.1407550782551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>871.40834786128903</c:v>
+                  <c:v>815.08193154884339</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1024.6861256390669</c:v>
+                  <c:v>993.35970932662121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1175.8440203759089</c:v>
+                  <c:v>1166.7807619582002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1469.4440203759091</c:v>
+                  <c:v>1417.3307619582001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1580.9678298997187</c:v>
+                  <c:v>1660.4736191010572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,61 +685,61 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>8.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.466666666666667</c:v>
+                  <c:v>15.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.3</c:v>
+                  <c:v>18.316666666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.157142857142858</c:v>
+                  <c:v>23.030952380952382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.032142857142858</c:v>
+                  <c:v>33.530952380952385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.143253968253973</c:v>
+                  <c:v>42.6420634920635</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.843253968253975</c:v>
+                  <c:v>63.442063492063497</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.297799422799429</c:v>
+                  <c:v>89.987518037518043</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.297799422799429</c:v>
+                  <c:v>125.82085137085139</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.990107115107122</c:v>
+                  <c:v>144.74392829392832</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.990107115107122</c:v>
+                  <c:v>175.3153568653569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>89.990107115107122</c:v>
+                  <c:v>211.78202353202357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111.30260711510712</c:v>
+                  <c:v>276.84452353202357</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140.94966593863654</c:v>
+                  <c:v>309.66805294378827</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>165.33855482752543</c:v>
+                  <c:v>347.00138627712158</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>184.3911864064728</c:v>
+                  <c:v>417.7908599613321</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>198.19118640647281</c:v>
+                  <c:v>489.39085996133213</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213.28642450171091</c:v>
+                  <c:v>528.05752662799875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,28 +1066,28 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.5</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.5</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.75</c:v>
+                  <c:v>121.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.35</c:v>
+                  <c:v>166.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172.35</c:v>
+                  <c:v>218.31666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>211.20714285714286</c:v>
+                  <c:v>260.88809523809522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>263.33214285714286</c:v>
+                  <c:v>296.51309523809522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>302.66547619047617</c:v>
+                  <c:v>347.84642857142853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,31 +1135,31 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.333333333333336</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>74.083333333333343</c:v>
+                  <c:v>87.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.083333333333343</c:v>
+                  <c:v>121.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126.91666666666667</c:v>
+                  <c:v>157.41666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>159.3452380952381</c:v>
+                  <c:v>198.98809523809524</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>181.7202380952381</c:v>
+                  <c:v>238.73809523809524</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>221.49801587301587</c:v>
+                  <c:v>271.40476190476193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,28 +1210,28 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>46.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.75</c:v>
+                  <c:v>59.583333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120.95</c:v>
+                  <c:v>81.983333333333334</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>156.44999999999999</c:v>
+                  <c:v>107.81666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>179.59285714285713</c:v>
+                  <c:v>131.53095238095239</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213.21785714285713</c:v>
+                  <c:v>158.03095238095239</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>250.66230158730156</c:v>
+                  <c:v>177.47539682539684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1279,31 +1279,31 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>57.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.25</c:v>
+                  <c:v>74.416666666666657</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.25</c:v>
+                  <c:v>99.216666666666654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>119.08333333333333</c:v>
+                  <c:v>129.21666666666664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>152.94047619047618</c:v>
+                  <c:v>147.78809523809522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>184.31547619047618</c:v>
+                  <c:v>167.66309523809522</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>208.09325396825395</c:v>
+                  <c:v>189.99642857142857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1755,46 +1755,46 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>8</c:v>
@@ -1926,37 +1926,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>37</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>12</c:v>
@@ -1965,19 +1965,19 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -2097,61 +2097,61 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
                 <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,58 +2268,58 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>4</c:v>
@@ -2439,34 +2439,34 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>53</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17</c:v>
@@ -2481,19 +2481,19 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,61 +2610,61 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,46 +2783,46 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>9</c:v>
@@ -5330,15 +5330,15 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C22" ca="1" si="1">C2 + (RANDBETWEEN(C2, 5 * C2) / A3)</f>
-        <v>27.5</v>
+        <v>33.5</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D22" ca="1" si="2">D2 + (RANDBETWEEN(D2, 5 * D2) / A3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E22" ca="1" si="3">E2 + (RANDBETWEEN(E2, 5 * E2) / A3)</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F22" ca="1" si="4">F2 + (RANDBETWEEN(F2, 5 * F2) / A3)</f>
@@ -5356,19 +5356,19 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">C3 + (RANDBETWEEN(C3, 5 * C3) / A4)</f>
-        <v>73.166666666666657</v>
+        <v>64.5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>14.666666666666668</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1666666666666679</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5.166666666666667</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5382,19 +5382,19 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>93.166666666666657</v>
+        <v>127.5</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>24.916666666666668</v>
+        <v>23.75</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>17.666666666666668</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>7.666666666666667</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5408,19 +5408,19 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>147.16666666666666</v>
+        <v>249.5</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>31.116666666666667</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>34.466666666666669</v>
+        <v>42.4</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>12.466666666666667</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>206.83333333333331</v>
+        <v>404</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>47.95</v>
+        <v>50.883333333333333</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>62.466666666666669</v>
+        <v>58.566666666666663</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>16.3</v>
+        <v>18.316666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5460,19 +5460,19 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>332.26190476190476</v>
+        <v>643.28571428571422</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>76.235714285714295</v>
+        <v>84.169047619047618</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>80.466666666666669</v>
+        <v>88.566666666666663</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>19.157142857142858</v>
+        <v>23.030952380952382</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5486,19 +5486,19 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>420.13690476190476</v>
+        <v>825.91071428571422</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>90.860714285714295</v>
+        <v>126.79404761904762</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>120.84166666666667</v>
+        <v>111.81666666666666</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>24.032142857142858</v>
+        <v>33.530952380952385</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -5512,19 +5512,19 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>535.35912698412699</v>
+        <v>934.13293650793639</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>136.52738095238095</v>
+        <v>142.5718253968254</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>178.73055555555555</v>
+        <v>172.15</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>32.143253968253973</v>
+        <v>42.6420634920635</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -5538,19 +5538,19 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>727.95912698412701</v>
+        <v>1350.2329365079363</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>183.02738095238095</v>
+        <v>170.6718253968254</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>258.83055555555552</v>
+        <v>234.55</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>39.843253968253975</v>
+        <v>63.442063492063497</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -5564,19 +5564,19 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>989.32276334776338</v>
+        <v>1802.7783910533908</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>203.48192640692639</v>
+        <v>243.94455266955265</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>297.92146464646464</v>
+        <v>274.36818181818182</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>49.297799422799429</v>
+        <v>89.987518037518043</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5590,19 +5590,19 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1158.5727633477634</v>
+        <v>2153.6117243867243</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>249.98192640692639</v>
+        <v>310.69455266955265</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>361.00479797979796</v>
+        <v>373.95151515151514</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>59.297799422799429</v>
+        <v>125.82085137085139</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -5616,19 +5616,19 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1359.5727633477634</v>
+        <v>2793.3809551559552</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>338.75115717615716</v>
+        <v>386.46378343878342</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>429.62018259518254</v>
+        <v>423.25920745920746</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>66.990107115107122</v>
+        <v>144.74392829392832</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -5642,19 +5642,19 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1706.5727633477634</v>
+        <v>3654.2380980130984</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>382.53687146187144</v>
+        <v>485.53521201021198</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>548.90589688089688</v>
+        <v>492.04492174492174</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>83.990107115107122</v>
+        <v>175.3153568653569</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -5668,19 +5668,19 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2207.6394300144302</v>
+        <v>3933.704764679765</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>428.33687146187145</v>
+        <v>537.46854534354532</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>644.23923021423025</v>
+        <v>597.5782550782551</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>89.990107115107122</v>
+        <v>211.78202353202357</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5694,19 +5694,19 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2498.7019300144302</v>
+        <v>5072.3922646797655</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>538.7118714618714</v>
+        <v>631.46854534354532</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>703.11423021423025</v>
+        <v>728.1407550782551</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>111.30260711510712</v>
+        <v>276.84452353202357</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5720,19 +5720,19 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2950.1725182497244</v>
+        <v>6376.3334411503538</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>643.12363616775372</v>
+        <v>748.52736887295714</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>871.40834786128903</v>
+        <v>815.08193154884339</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>140.94966593863654</v>
+        <v>309.66805294378827</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5746,19 +5746,19 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3555.7836293608352</v>
+        <v>7821.7223300392425</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>820.45696950108709</v>
+        <v>821.13847998406823</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1024.6861256390669</v>
+        <v>993.35970932662121</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>165.33855482752543</v>
+        <v>347.00138627712158</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5772,19 +5772,19 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3984.0994188345194</v>
+        <v>9541.0907510918732</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>881.08854844845553</v>
+        <v>941.4016378788051</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1175.8440203759089</v>
+        <v>1166.7807619582002</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>184.3911864064728</v>
+        <v>417.7908599613321</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4581.1994188345197</v>
+        <v>11395.690751091874</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1013.3385484484555</v>
+        <v>1124.0516378788052</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1469.4440203759091</v>
+        <v>1417.3307619582001</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>198.19118640647281</v>
+        <v>489.39085996133213</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,19 +5824,19 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5160.8184664535675</v>
+        <v>13082.83360823473</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1176.1004532103602</v>
+        <v>1235.4802093073765</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1580.9678298997187</v>
+        <v>1660.4736191010572</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>213.28642450171091</v>
+        <v>528.05752662799875</v>
       </c>
     </row>
   </sheetData>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="C3" s="10">
         <f t="shared" ref="C3:C11" ca="1" si="1">(C2 + (RANDBETWEEN(C2, C2 * 2) / A2))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D11" ca="1" si="2">(D2 + (RANDBETWEEN(D2, D2 * 2) / A2))</f>
@@ -5921,7 +5921,7 @@
       </c>
       <c r="E3" s="10">
         <f t="shared" ref="E3:E11" ca="1" si="3">(E2 + (RANDBETWEEN(E2, E2 * 2) / A2))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5930,19 +5930,19 @@
       </c>
       <c r="B4" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>47.5</v>
+        <v>59.5</v>
       </c>
       <c r="C4" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>41.5</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5951,19 +5951,19 @@
       </c>
       <c r="B5" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>68.5</v>
+        <v>92.5</v>
       </c>
       <c r="C5" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>54.333333333333336</v>
+        <v>68.5</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>46.333333333333336</v>
       </c>
       <c r="E5" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>57.666666666666664</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -5972,19 +5972,19 @@
       </c>
       <c r="B6" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>94.75</v>
+        <v>121.75</v>
       </c>
       <c r="C6" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>74.083333333333343</v>
+        <v>87.75</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>86.75</v>
+        <v>59.583333333333336</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>73.25</v>
+        <v>74.416666666666657</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5993,19 +5993,19 @@
       </c>
       <c r="B7" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>129.35</v>
+        <v>166.15</v>
       </c>
       <c r="C7" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>97.083333333333343</v>
+        <v>121.75</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>120.95</v>
+        <v>81.983333333333334</v>
       </c>
       <c r="E7" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>94.25</v>
+        <v>99.216666666666654</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6014,19 +6014,19 @@
       </c>
       <c r="B8" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>172.35</v>
+        <v>218.31666666666666</v>
       </c>
       <c r="C8" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>126.91666666666667</v>
+        <v>157.41666666666666</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>156.44999999999999</v>
+        <v>107.81666666666666</v>
       </c>
       <c r="E8" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>119.08333333333333</v>
+        <v>129.21666666666664</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,19 +6035,19 @@
       </c>
       <c r="B9" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>211.20714285714286</v>
+        <v>260.88809523809522</v>
       </c>
       <c r="C9" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>159.3452380952381</v>
+        <v>198.98809523809524</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>179.59285714285713</v>
+        <v>131.53095238095239</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>152.94047619047618</v>
+        <v>147.78809523809522</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6056,19 +6056,19 @@
       </c>
       <c r="B10" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>263.33214285714286</v>
+        <v>296.51309523809522</v>
       </c>
       <c r="C10" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>181.7202380952381</v>
+        <v>238.73809523809524</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>213.21785714285713</v>
+        <v>158.03095238095239</v>
       </c>
       <c r="E10" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>184.31547619047618</v>
+        <v>167.66309523809522</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6077,19 +6077,19 @@
       </c>
       <c r="B11" s="10">
         <f t="shared" ca="1" si="0"/>
-        <v>302.66547619047617</v>
+        <v>347.84642857142853</v>
       </c>
       <c r="C11" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>221.49801587301587</v>
+        <v>271.40476190476193</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" ca="1" si="2"/>
-        <v>250.66230158730156</v>
+        <v>177.47539682539684</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>208.09325396825395</v>
+        <v>189.99642857142857</v>
       </c>
     </row>
   </sheetData>
@@ -6198,31 +6198,31 @@
       </c>
       <c r="B3" s="8">
         <f ca="1">(RANDBETWEEN(B2 * J2, B2 * K2))</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8">
         <f ca="1">(RANDBETWEEN(C2 * J2, C2 * K2))</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D3" s="8">
         <f ca="1">(RANDBETWEEN(D2 * J2, D2 * K2))</f>
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="8">
         <f ca="1">(RANDBETWEEN(E2 * J2, E2 * K2))</f>
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">(RANDBETWEEN(F2 * J2, F2 * K2))</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G3" s="8">
         <f ca="1">(RANDBETWEEN(G2 * J2, G2 * K2))</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H3" s="8">
         <f ca="1">(RANDBETWEEN(H2 * J2, H2 * K2))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6232,31 +6232,31 @@
       </c>
       <c r="B4" s="8">
         <f ca="1">(RANDBETWEEN(B3 * J2, B3 * K2))</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="8">
         <f ca="1">(RANDBETWEEN(C3 * J2, C3 * K2))</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8">
         <f ca="1">(RANDBETWEEN(D3 * J2, D3 * K2))</f>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E4" s="8">
         <f ca="1">(RANDBETWEEN(E3 * J2, E3 * K2))</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F4" s="8">
         <f ca="1">(RANDBETWEEN(F3 * J2, F3 * K2))</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G4" s="8">
         <f ca="1">(RANDBETWEEN(G3 * J2, G3 * K2))</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H4" s="8">
         <f ca="1">(RANDBETWEEN(H3 * J2, H3 * K2))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6266,31 +6266,31 @@
       </c>
       <c r="B5" s="8">
         <f ca="1">(RANDBETWEEN(B4 * J2, B4 * K2))</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="8">
         <f ca="1">(RANDBETWEEN(C4 * J2, C4 * K2))</f>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8">
         <f ca="1">(RANDBETWEEN(D4 * J2, D4 * K2))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8">
         <f ca="1">(RANDBETWEEN(E4 * J2, E4 * K2))</f>
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" s="8">
         <f ca="1">(RANDBETWEEN(F4 * J2, F4 * K2))</f>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G5" s="8">
         <f ca="1">(RANDBETWEEN(G4 * J2, G4 * K2))</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H5" s="8">
         <f ca="1">(RANDBETWEEN(H4 * J2, H4 * K2))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6300,23 +6300,23 @@
       </c>
       <c r="B6" s="8">
         <f ca="1">(RANDBETWEEN(B5 * J2, B5 * K2))</f>
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="8">
         <f ca="1">(RANDBETWEEN(C5 * J2, C5 * K2))</f>
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8">
         <f ca="1">(RANDBETWEEN(D5 * J2, D5 * K2))</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E6" s="8">
         <f ca="1">(RANDBETWEEN(E5 * J2, E5 * K2))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">(RANDBETWEEN(F5 * J2, F5 * K2))</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G6" s="8">
         <f ca="1">(RANDBETWEEN(G5 * J2, G5 * K2))</f>
@@ -6334,31 +6334,31 @@
       </c>
       <c r="B7" s="8">
         <f ca="1">(RANDBETWEEN(B6 * J2, B6 * K2))</f>
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C7" s="8">
         <f ca="1">(RANDBETWEEN(C6 * J2, C6 * K2))</f>
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8">
         <f ca="1">(RANDBETWEEN(D6 * J2, D6 * K2))</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E7" s="8">
         <f ca="1">(RANDBETWEEN(E6 * J2, E6 * K2))</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8">
         <f ca="1">(RANDBETWEEN(F6 * J2, F6 * K2))</f>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G7" s="8">
         <f ca="1">(RANDBETWEEN(G6 * J2, G6 * K2))</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="8">
         <f ca="1">(RANDBETWEEN(H6 * J2, H6 * K2))</f>
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6368,31 +6368,31 @@
       </c>
       <c r="B8" s="8">
         <f ca="1">(RANDBETWEEN(B7 * J2, B7 * K2))</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="8">
         <f ca="1">(RANDBETWEEN(C7 * J2, C7 * K2))</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D8" s="8">
         <f ca="1">(RANDBETWEEN(D7 * J2, D7 * K2))</f>
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8">
         <f ca="1">(RANDBETWEEN(E7 * J2, E7 * K2))</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">(RANDBETWEEN(F7 * J2, F7 * K2))</f>
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G8" s="8">
         <f ca="1">(RANDBETWEEN(G7 * J2, G7 * K2))</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="8">
         <f ca="1">(RANDBETWEEN(H7 * J2, H7 * K2))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6402,31 +6402,31 @@
       </c>
       <c r="B9" s="8">
         <f ca="1">(RANDBETWEEN(B8 * J2, B8 * K2))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8">
         <f ca="1">(RANDBETWEEN(C8 * J2, C8 * K2))</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8">
         <f ca="1">(RANDBETWEEN(D8 * J2, D8 * K2))</f>
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="8">
         <f ca="1">(RANDBETWEEN(E8 * J2, E8 * K2))</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">(RANDBETWEEN(F8 * J2, F8 * K2))</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" s="8">
         <f ca="1">(RANDBETWEEN(G8 * J2, G8 * K2))</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H9" s="8">
         <f ca="1">(RANDBETWEEN(H8 * J2, H8 * K2))</f>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6436,19 +6436,19 @@
       </c>
       <c r="B10" s="8">
         <f ca="1">(RANDBETWEEN(B9 * J2, B9 * K2))</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="8">
         <f ca="1">(RANDBETWEEN(C9 * J2, C9 * K2))</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8">
         <f ca="1">(RANDBETWEEN(D9 * J2, D9 * K2))</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8">
         <f ca="1">(RANDBETWEEN(E9 * J2, E9 * K2))</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">(RANDBETWEEN(F9 * J2, F9 * K2))</f>
@@ -6456,11 +6456,11 @@
       </c>
       <c r="G10" s="8">
         <f ca="1">(RANDBETWEEN(G9 * J2, G9 * K2))</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="8">
         <f ca="1">(RANDBETWEEN(H9 * J2, H9 * K2))</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6470,27 +6470,27 @@
       </c>
       <c r="B11" s="8">
         <f ca="1">(RANDBETWEEN(B10 * J2, B10 * K2))</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="8">
         <f ca="1">(RANDBETWEEN(C10 * J2, C10 * K2))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8">
         <f ca="1">(RANDBETWEEN(D10 * J2, D10 * K2))</f>
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8">
         <f ca="1">(RANDBETWEEN(E10 * J2, E10 * K2))</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">(RANDBETWEEN(F10 * J2, F10 * K2))</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="8">
         <f ca="1">(RANDBETWEEN(G10 * J2, G10 * K2))</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="8">
         <f ca="1">(RANDBETWEEN(H10 * J2, H10 * K2))</f>
@@ -6504,31 +6504,31 @@
       </c>
       <c r="B12" s="8">
         <f ca="1">(RANDBETWEEN(B11 * J2, B11 * K2))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8">
         <f ca="1">(RANDBETWEEN(C11 * J2, C11 * K2))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="8">
         <f ca="1">(RANDBETWEEN(D11 * J2, D11 * K2))</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E12" s="8">
         <f ca="1">(RANDBETWEEN(E11 * J2, E11 * K2))</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">(RANDBETWEEN(F11 * J2, F11 * K2))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G12" s="8">
         <f ca="1">(RANDBETWEEN(G11 * J2, G11 * K2))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" s="8">
         <f ca="1">(RANDBETWEEN(H11 * J2, H11 * K2))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6538,19 +6538,19 @@
       </c>
       <c r="B13" s="8">
         <f ca="1">(RANDBETWEEN(B12 * J2, B12 * K2))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8">
         <f ca="1">(RANDBETWEEN(C12 * J2, C12 * K2))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="8">
         <f ca="1">(RANDBETWEEN(D12 * J2, D12 * K2))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8">
         <f ca="1">(RANDBETWEEN(E12 * J2, E12 * K2))</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">(RANDBETWEEN(F12 * J2, F12 * K2))</f>
@@ -6558,11 +6558,11 @@
       </c>
       <c r="G13" s="8">
         <f ca="1">(RANDBETWEEN(G12 * J2, G12 * K2))</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="8">
         <f ca="1">(RANDBETWEEN(H12 * J2, H12 * K2))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6572,7 +6572,7 @@
       </c>
       <c r="B14" s="8">
         <f ca="1">(RANDBETWEEN(B13 * J2, B13 * K2))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8">
         <f ca="1">(RANDBETWEEN(C13 * J2, C13 * K2))</f>
@@ -6580,11 +6580,11 @@
       </c>
       <c r="D14" s="8">
         <f ca="1">(RANDBETWEEN(D13 * J2, D13 * K2))</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14" s="8">
         <f ca="1">(RANDBETWEEN(E13 * J2, E13 * K2))</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">(RANDBETWEEN(F13 * J2, F13 * K2))</f>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="G14" s="8">
         <f ca="1">(RANDBETWEEN(G13 * J2, G13 * K2))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="8">
         <f ca="1">(RANDBETWEEN(H13 * J2, H13 * K2))</f>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="B15" s="8">
         <f ca="1">(RANDBETWEEN(B14 * J2, B14 * K2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8">
         <f ca="1">(RANDBETWEEN(C14 * J2, C14 * K2))</f>
@@ -6614,11 +6614,11 @@
       </c>
       <c r="D15" s="8">
         <f ca="1">(RANDBETWEEN(D14 * J2, D14 * K2))</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" s="8">
         <f ca="1">(RANDBETWEEN(E14 * J2, E14 * K2))</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F15" s="8">
         <f ca="1">(RANDBETWEEN(F14 * J2, F14 * K2))</f>
@@ -6626,11 +6626,11 @@
       </c>
       <c r="G15" s="8">
         <f ca="1">(RANDBETWEEN(G14 * J2, G14 * K2))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="8">
         <f ca="1">(RANDBETWEEN(H14 * J2, H14 * K2))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6640,19 +6640,19 @@
       </c>
       <c r="B16" s="8">
         <f ca="1">(RANDBETWEEN(B15 * J2, B15 * K2))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8">
         <f ca="1">(RANDBETWEEN(C15 * J2, C15 * K2))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="8">
         <f ca="1">(RANDBETWEEN(D15 * J2, D15 * K2))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8">
         <f ca="1">(RANDBETWEEN(E15 * J2, E15 * K2))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" s="8">
         <f ca="1">(RANDBETWEEN(F15 * J2, F15 * K2))</f>
@@ -6660,11 +6660,11 @@
       </c>
       <c r="G16" s="8">
         <f ca="1">(RANDBETWEEN(G15 * J2, G15 * K2))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="8">
         <f ca="1">(RANDBETWEEN(H15 * J2, H15 * K2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6678,23 +6678,23 @@
       </c>
       <c r="C17" s="8">
         <f ca="1">(RANDBETWEEN(C16 * J2, C16 * K2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="8">
         <f ca="1">(RANDBETWEEN(D16 * J2, D16 * K2))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="8">
         <f ca="1">(RANDBETWEEN(E16 * J2, E16 * K2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="8">
         <f ca="1">(RANDBETWEEN(F16 * J2, F16 * K2))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="8">
         <f ca="1">(RANDBETWEEN(G16 * J2, G16 * K2))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17" s="8">
         <f ca="1">(RANDBETWEEN(H16 * J2, H16 * K2))</f>
@@ -6712,23 +6712,23 @@
       </c>
       <c r="C18" s="8">
         <f ca="1">(RANDBETWEEN(C17 * J2, C17 * K2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="8">
         <f ca="1">(RANDBETWEEN(D17 * J2, D17 * K2))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="8">
         <f ca="1">(RANDBETWEEN(E17 * J2, E17 * K2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="8">
         <f ca="1">(RANDBETWEEN(F17 * J2, F17 * K2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="8">
         <f ca="1">(RANDBETWEEN(G17 * J2, G17 * K2))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="8">
         <f ca="1">(RANDBETWEEN(H17 * J2, H17 * K2))</f>
@@ -6746,23 +6746,23 @@
       </c>
       <c r="C19" s="8">
         <f ca="1">(RANDBETWEEN(C18 * J2, C18 * K2))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="8">
         <f ca="1">(RANDBETWEEN(D18 * J2, D18 * K2))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" s="8">
         <f ca="1">(RANDBETWEEN(E18 * J2, E18 * K2))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" s="8">
         <f ca="1">(RANDBETWEEN(F18 * J2, F18 * K2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" s="8">
         <f ca="1">(RANDBETWEEN(G18 * J2, G18 * K2))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="8">
         <f ca="1">(RANDBETWEEN(H18 * J2, H18 * K2))</f>
@@ -6780,23 +6780,23 @@
       </c>
       <c r="C20" s="8">
         <f ca="1">(RANDBETWEEN(C19 * J2, C19 * K2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="8">
         <f ca="1">(RANDBETWEEN(D19 * J2, D19 * K2))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="8">
         <f ca="1">(RANDBETWEEN(E19 * J2, E19 * K2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20" s="8">
         <f ca="1">(RANDBETWEEN(F19 * J2, F19 * K2))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="8">
         <f ca="1">(RANDBETWEEN(G19 * J2, G19 * K2))</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H20" s="8">
         <f ca="1">(RANDBETWEEN(H19 * J2, H19 * K2))</f>
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D21" s="8">
         <f ca="1">(RANDBETWEEN(D20 * J2, D20 * K2))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="8">
         <f ca="1">(RANDBETWEEN(E20 * J2, E20 * K2))</f>
@@ -6826,11 +6826,11 @@
       </c>
       <c r="F21" s="8">
         <f ca="1">(RANDBETWEEN(F20 * J2, F20 * K2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="8">
         <f ca="1">(RANDBETWEEN(G20 * J2, G20 * K2))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H21" s="8">
         <f ca="1">(RANDBETWEEN(H20 * J2, H20 * K2))</f>
